--- a/Data/TMT Universe Data.xlsx
+++ b/Data/TMT Universe Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E540E81-94D1-9B4C-BB70-8889E7F1BCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10897DE0-349F-AF4C-A44A-F4E3FC32FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1577">
   <si>
     <t>Name</t>
   </si>
@@ -171,9 +171,6 @@
     <t>AMAT</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>ADSK</t>
   </si>
   <si>
@@ -462,9 +459,6 @@
     <t>Applied Materials</t>
   </si>
   <si>
-    <t>AT&amp;T</t>
-  </si>
-  <si>
     <t>Autodesk Inc.</t>
   </si>
   <si>
@@ -753,9 +747,6 @@
     <t>0000006951</t>
   </si>
   <si>
-    <t>0000732717</t>
-  </si>
-  <si>
     <t>0000769397</t>
   </si>
   <si>
@@ -1032,9 +1023,6 @@
     <t>3571</t>
   </si>
   <si>
-    <t>4813</t>
-  </si>
-  <si>
     <t>5731</t>
   </si>
   <si>
@@ -1218,9 +1206,6 @@
     <t>0000006951-20-000048</t>
   </si>
   <si>
-    <t>0000732717-21-000012</t>
-  </si>
-  <si>
     <t>0000769397-21-000014</t>
   </si>
   <si>
@@ -1506,9 +1491,6 @@
     <t>0000006951-19-000046</t>
   </si>
   <si>
-    <t>0001562762-20-000064</t>
-  </si>
-  <si>
     <t>0000769397-20-000013</t>
   </si>
   <si>
@@ -1785,9 +1767,6 @@
     <t>0000006951-18-000041</t>
   </si>
   <si>
-    <t>0001193125-19-045608</t>
-  </si>
-  <si>
     <t>0000769397-19-000016</t>
   </si>
   <si>
@@ -2058,9 +2037,6 @@
     <t>0000006951-17-000038</t>
   </si>
   <si>
-    <t>0000732717-18-000009</t>
-  </si>
-  <si>
     <t>0000769397-18-000011</t>
   </si>
   <si>
@@ -2316,9 +2292,6 @@
     <t>0000006951-16-000068</t>
   </si>
   <si>
-    <t>0000732717-17-000021</t>
-  </si>
-  <si>
     <t>0000769397-17-000014</t>
   </si>
   <si>
@@ -2568,9 +2541,6 @@
     <t>0000006951-15-000034</t>
   </si>
   <si>
-    <t>0000732717-16-000147</t>
-  </si>
-  <si>
     <t>0000769397-16-000067</t>
   </si>
   <si>
@@ -2814,9 +2784,6 @@
     <t>0000006951-14-000037</t>
   </si>
   <si>
-    <t>0000732717-15-000016</t>
-  </si>
-  <si>
     <t>0000769397-15-000012</t>
   </si>
   <si>
@@ -3042,9 +3009,6 @@
     <t>0000006951-13-000044</t>
   </si>
   <si>
-    <t>0000732717-14-000010</t>
-  </si>
-  <si>
     <t>0000769397-14-000018</t>
   </si>
   <si>
@@ -3243,9 +3207,6 @@
     <t>0000006951-12-000018</t>
   </si>
   <si>
-    <t>0000732717-13-000017</t>
-  </si>
-  <si>
     <t>0000769397-13-000007</t>
   </si>
   <si>
@@ -3435,9 +3396,6 @@
     <t>0001193125-11-332050</t>
   </si>
   <si>
-    <t>0000732717-12-000025</t>
-  </si>
-  <si>
     <t>0000769397-12-000005</t>
   </si>
   <si>
@@ -4741,6 +4699,69 @@
   </si>
   <si>
     <t>0001585521-20-000095</t>
+  </si>
+  <si>
+    <t>CMST</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>0001166691-21-000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001166691-20-000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001166691-19-000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001166691-18-000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-17-030512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-16-452423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-15-068526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-14-047522</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-13-067658</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-12-073905</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-11-047243</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-10-037551</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-09-033975</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-08-034239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-07-039301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001193125-06-036698</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001047469-05-004437</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0000950159-04-000281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0000950159-03-000238</t>
   </si>
 </sst>
 </file>
@@ -4772,7 +4793,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4795,16 +4816,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5145,8 +5180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5254,37 +5289,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="I2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="J2" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="K2" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="L2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -5292,55 +5327,55 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="J3" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="K3" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="L3" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="M3" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="N3" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="O3" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="P3" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="Q3" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="R3" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -5348,97 +5383,97 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="J4" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="K4" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="L4" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="M4" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="N4" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="O4" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="P4" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="Q4" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="R4" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="S4" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="T4" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="U4" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="V4" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="W4" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="X4" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="Y4" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
       <c r="Z4" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="AA4" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="AB4" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
       <c r="AC4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AE4" t="s">
         <v>1548</v>
       </c>
-      <c r="AD4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>1562</v>
-      </c>
       <c r="AF4" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -5446,88 +5481,88 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="I5" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="J5" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="K5" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="L5" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="M5" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="N5" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="O5" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="P5" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="Q5" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="R5" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="S5" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="T5" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="U5" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="V5" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="W5" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="X5" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="Y5" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
       <c r="Z5" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="AA5" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="AB5" t="s">
-        <v>1540</v>
+        <v>1526</v>
       </c>
       <c r="AC5" t="s">
-        <v>1549</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -5535,19 +5570,19 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -5555,76 +5590,76 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="J7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="K7" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="L7" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="M7" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="N7" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="O7" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="P7" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="Q7" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="R7" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
       <c r="S7" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="T7" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="U7" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="V7" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="W7" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="X7" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="Y7" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -5632,28 +5667,28 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="I8" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -5661,79 +5696,79 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I9" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="J9" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="K9" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="L9" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="M9" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="N9" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="O9" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="P9" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="Q9" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="R9" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="S9" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="T9" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="U9" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="V9" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="W9" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="X9" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
       <c r="Y9" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
       <c r="Z9" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -5741,40 +5776,40 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G10" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="J10" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="K10" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="L10" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="M10" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5782,46 +5817,46 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I11" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="J11" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="K11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="L11" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="M11" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="N11" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="O11" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -5829,28 +5864,28 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H12" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I12" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -5858,34 +5893,34 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G13" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H13" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I13" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="J13" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="K13" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -5893,91 +5928,91 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G14" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H14" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I14" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="J14" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="K14" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="L14" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="M14" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="N14" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="O14" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="P14" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="Q14" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="R14" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="S14" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="T14" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="U14" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="V14" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="W14" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="X14" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="Y14" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
       <c r="Z14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AA14" t="s">
         <v>1514</v>
       </c>
-      <c r="AA14" t="s">
-        <v>1528</v>
-      </c>
       <c r="AB14" t="s">
-        <v>1541</v>
+        <v>1527</v>
       </c>
       <c r="AC14" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="AD14" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -5985,52 +6020,52 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H15" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I15" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="J15" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="K15" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="L15" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="M15" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="N15" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="O15" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="P15" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="Q15" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -6038,46 +6073,88 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G16" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H16" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="I16" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="J16" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="K16" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="L16" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="M16" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="N16" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="O16" t="s">
-        <v>1134</v>
+        <v>1121</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="T16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="U16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="V16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1482</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -6085,88 +6162,91 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G17" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H17" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I17" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="J17" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="K17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="L17" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="M17" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="N17" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="O17" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="P17" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="Q17" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="R17" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="S17" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="T17" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="U17" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="V17" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="W17" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="X17" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="Y17" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="Z17" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="AA17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AB17" t="s">
         <v>1529</v>
       </c>
-      <c r="AB17" t="s">
-        <v>1542</v>
-      </c>
       <c r="AC17" t="s">
-        <v>1551</v>
+        <v>1538</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -6174,91 +6254,34 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G18" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I18" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="J18" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="K18" t="s">
-        <v>847</v>
-      </c>
-      <c r="L18" t="s">
-        <v>929</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1072</v>
-      </c>
-      <c r="O18" t="s">
-        <v>1136</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1195</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>1252</v>
-      </c>
-      <c r="R18" t="s">
-        <v>1299</v>
-      </c>
-      <c r="S18" t="s">
-        <v>1340</v>
-      </c>
-      <c r="T18" t="s">
-        <v>1373</v>
-      </c>
-      <c r="U18" t="s">
-        <v>1402</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1431</v>
-      </c>
-      <c r="W18" t="s">
-        <v>1455</v>
-      </c>
-      <c r="X18" t="s">
-        <v>1476</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>1497</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1516</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>1558</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -6266,34 +6289,55 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G19" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H19" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I19" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="J19" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="K19" t="s">
-        <v>848</v>
+        <v>839</v>
+      </c>
+      <c r="L19" t="s">
+        <v>919</v>
+      </c>
+      <c r="M19" t="s">
+        <v>994</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -6301,55 +6345,58 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G20" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H20" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I20" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="J20" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="K20" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="L20" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="M20" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="N20" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="O20" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="P20" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="Q20" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="R20" t="s">
-        <v>1300</v>
+        <v>1287</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -6357,58 +6404,79 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G21" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H21" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I21" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="J21" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="K21" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="L21" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="M21" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="N21" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="O21" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="P21" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="Q21" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="R21" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="S21" t="s">
-        <v>1341</v>
+        <v>1328</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="U21" t="s">
+        <v>1389</v>
+      </c>
+      <c r="V21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1442</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -6416,79 +6484,67 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G22" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H22" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="I22" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J22" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="K22" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="L22" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="M22" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="N22" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="O22" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="P22" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="Q22" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="R22" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="S22" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="T22" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="U22" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="V22" t="s">
-        <v>1432</v>
-      </c>
-      <c r="W22" t="s">
-        <v>1456</v>
-      </c>
-      <c r="X22" t="s">
-        <v>1477</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>1498</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>1517</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -6496,67 +6552,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E23" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G23" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H23" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I23" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="J23" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="K23" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="L23" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="M23" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="N23" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="O23" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="P23" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>1256</v>
-      </c>
-      <c r="R23" t="s">
-        <v>1303</v>
-      </c>
-      <c r="S23" t="s">
-        <v>1343</v>
-      </c>
-      <c r="T23" t="s">
-        <v>1375</v>
-      </c>
-      <c r="U23" t="s">
-        <v>1404</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1433</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -6564,49 +6602,19 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F24" t="s">
-        <v>403</v>
-      </c>
-      <c r="G24" t="s">
-        <v>499</v>
-      </c>
-      <c r="H24" t="s">
-        <v>592</v>
-      </c>
-      <c r="I24" t="s">
-        <v>683</v>
-      </c>
-      <c r="J24" t="s">
-        <v>769</v>
-      </c>
-      <c r="K24" t="s">
-        <v>853</v>
-      </c>
-      <c r="L24" t="s">
-        <v>934</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1141</v>
-      </c>
-      <c r="P24" t="s">
-        <v>1200</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -6614,19 +6622,94 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E25" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F25" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
+      <c r="H25" t="s">
+        <v>586</v>
+      </c>
+      <c r="I25" t="s">
+        <v>676</v>
+      </c>
+      <c r="J25" t="s">
+        <v>761</v>
+      </c>
+      <c r="K25" t="s">
+        <v>844</v>
+      </c>
+      <c r="L25" t="s">
+        <v>924</v>
+      </c>
+      <c r="M25" t="s">
+        <v>999</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1330</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1362</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1391</v>
+      </c>
+      <c r="V25" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1443</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1485</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -6634,94 +6717,82 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E26" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F26" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G26" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H26" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I26" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="J26" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="K26" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="L26" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="M26" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="N26" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="O26" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="P26" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="Q26" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="R26" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="S26" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="T26" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="U26" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="V26" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="W26" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="X26" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="Y26" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="Z26" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AA26" t="s">
         <v>1518</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>1553</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>1559</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -6729,82 +6800,76 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H27" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="I27" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="J27" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="K27" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="L27" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="M27" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="N27" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="O27" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="P27" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="Q27" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="R27" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="S27" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="T27" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="U27" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="V27" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="W27" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="X27" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="Y27" t="s">
-        <v>1500</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>1519</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -6812,76 +6877,64 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F28" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G28" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H28" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I28" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="J28" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="K28" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="L28" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="M28" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="N28" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="O28" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="P28" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="Q28" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="R28" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="S28" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="T28" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="U28" t="s">
-        <v>1407</v>
-      </c>
-      <c r="V28" t="s">
-        <v>1436</v>
-      </c>
-      <c r="W28" t="s">
-        <v>1459</v>
-      </c>
-      <c r="X28" t="s">
-        <v>1480</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>1501</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -6889,64 +6942,43 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
         <v>335</v>
       </c>
       <c r="E29" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G29" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H29" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="I29" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="J29" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="K29" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="L29" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="M29" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="N29" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O29" t="s">
-        <v>1145</v>
-      </c>
-      <c r="P29" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>1260</v>
-      </c>
-      <c r="R29" t="s">
-        <v>1307</v>
-      </c>
-      <c r="S29" t="s">
-        <v>1347</v>
-      </c>
-      <c r="T29" t="s">
-        <v>1379</v>
-      </c>
-      <c r="U29" t="s">
-        <v>1408</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -6954,43 +6986,73 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F30" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H30" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="I30" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="J30" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="K30" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="L30" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="M30" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="N30" t="s">
-        <v>1082</v>
+        <v>1070</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1247</v>
+      </c>
+      <c r="R30" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1366</v>
+      </c>
+      <c r="U30" t="s">
+        <v>1395</v>
+      </c>
+      <c r="V30" t="s">
+        <v>1423</v>
+      </c>
+      <c r="W30" t="s">
+        <v>1446</v>
+      </c>
+      <c r="X30" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -6998,73 +7060,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D31" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H31" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="I31" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="J31" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="K31" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="L31" t="s">
-        <v>940</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1016</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1083</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1146</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1205</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>1261</v>
-      </c>
-      <c r="R31" t="s">
-        <v>1308</v>
-      </c>
-      <c r="S31" t="s">
-        <v>1348</v>
-      </c>
-      <c r="T31" t="s">
-        <v>1380</v>
-      </c>
-      <c r="U31" t="s">
-        <v>1409</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1437</v>
-      </c>
-      <c r="W31" t="s">
-        <v>1460</v>
-      </c>
-      <c r="X31" t="s">
-        <v>1481</v>
+        <v>930</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -7072,37 +7098,49 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G32" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H32" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I32" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="J32" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="K32" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="L32" t="s">
-        <v>941</v>
+        <v>931</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -7110,49 +7148,22 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E33" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G33" t="s">
-        <v>507</v>
-      </c>
-      <c r="H33" t="s">
-        <v>600</v>
-      </c>
-      <c r="I33" t="s">
-        <v>691</v>
-      </c>
-      <c r="J33" t="s">
-        <v>777</v>
-      </c>
-      <c r="K33" t="s">
-        <v>861</v>
-      </c>
-      <c r="L33" t="s">
-        <v>942</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1084</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1147</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -7160,22 +7171,58 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E34" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F34" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G34" t="s">
-        <v>508</v>
+        <v>503</v>
+      </c>
+      <c r="H34" t="s">
+        <v>594</v>
+      </c>
+      <c r="I34" t="s">
+        <v>684</v>
+      </c>
+      <c r="J34" t="s">
+        <v>769</v>
+      </c>
+      <c r="K34" t="s">
+        <v>852</v>
+      </c>
+      <c r="L34" t="s">
+        <v>932</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R34" t="s">
+        <v>1295</v>
+      </c>
+      <c r="S34" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
@@ -7183,58 +7230,34 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F35" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G35" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H35" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I35" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="J35" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="K35" t="s">
-        <v>862</v>
-      </c>
-      <c r="L35" t="s">
-        <v>943</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1085</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1148</v>
-      </c>
-      <c r="P35" t="s">
-        <v>1207</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>1262</v>
-      </c>
-      <c r="R35" t="s">
-        <v>1309</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1349</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
@@ -7242,10 +7265,10 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D36" t="s">
         <v>339</v>
@@ -7254,22 +7277,22 @@
         <v>361</v>
       </c>
       <c r="F36" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G36" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H36" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="I36" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J36" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="K36" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
@@ -7277,34 +7300,82 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E37" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G37" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H37" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="I37" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="J37" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="K37" t="s">
-        <v>864</v>
+        <v>855</v>
+      </c>
+      <c r="L37" t="s">
+        <v>933</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="P37" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R37" t="s">
+        <v>1296</v>
+      </c>
+      <c r="S37" t="s">
+        <v>1336</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1367</v>
+      </c>
+      <c r="U37" t="s">
+        <v>1396</v>
+      </c>
+      <c r="V37" t="s">
+        <v>1424</v>
+      </c>
+      <c r="W37" t="s">
+        <v>1447</v>
+      </c>
+      <c r="X37" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -7312,82 +7383,52 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F38" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G38" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H38" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I38" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="J38" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="K38" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="L38" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="M38" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="N38" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="O38" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="P38" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="Q38" t="s">
-        <v>1263</v>
-      </c>
-      <c r="R38" t="s">
-        <v>1310</v>
-      </c>
-      <c r="S38" t="s">
-        <v>1350</v>
-      </c>
-      <c r="T38" t="s">
-        <v>1381</v>
-      </c>
-      <c r="U38" t="s">
-        <v>1410</v>
-      </c>
-      <c r="V38" t="s">
-        <v>1438</v>
-      </c>
-      <c r="W38" t="s">
-        <v>1461</v>
-      </c>
-      <c r="X38" t="s">
-        <v>1482</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>1502</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>1520</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>1533</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -7395,52 +7436,76 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D39" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="E39" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G39" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H39" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="I39" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="J39" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="K39" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="L39" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="M39" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="N39" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="O39" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="P39" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="Q39" t="s">
-        <v>1264</v>
+        <v>1251</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1297</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1337</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1368</v>
+      </c>
+      <c r="U39" t="s">
+        <v>1397</v>
+      </c>
+      <c r="V39" t="s">
+        <v>1425</v>
+      </c>
+      <c r="W39" t="s">
+        <v>1448</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -7448,76 +7513,82 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G40" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H40" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="I40" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="J40" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="K40" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="L40" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="M40" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="N40" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="O40" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="P40" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="Q40" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="R40" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="S40" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="T40" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="U40" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="V40" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="W40" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="X40" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="Y40" t="s">
-        <v>1503</v>
+        <v>1490</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
@@ -7525,82 +7596,49 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="E41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F41" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G41" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H41" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I41" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="J41" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="K41" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="L41" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="M41" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="N41" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="O41" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="P41" t="s">
-        <v>1211</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>1266</v>
-      </c>
-      <c r="R41" t="s">
-        <v>1312</v>
-      </c>
-      <c r="S41" t="s">
-        <v>1352</v>
-      </c>
-      <c r="T41" t="s">
-        <v>1383</v>
-      </c>
-      <c r="U41" t="s">
-        <v>1412</v>
-      </c>
-      <c r="V41" t="s">
-        <v>1440</v>
-      </c>
-      <c r="W41" t="s">
-        <v>1463</v>
-      </c>
-      <c r="X41" t="s">
-        <v>1484</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>1504</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>1534</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -7608,49 +7646,55 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E42" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G42" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H42" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I42" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="J42" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="K42" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="L42" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="M42" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="N42" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="O42" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="P42" t="s">
-        <v>1212</v>
+        <v>1199</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1253</v>
+      </c>
+      <c r="R42" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
@@ -7658,55 +7702,91 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D43" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="E43" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G43" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H43" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="I43" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="J43" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="K43" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="L43" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="M43" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="N43" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="O43" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="P43" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="Q43" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="R43" t="s">
-        <v>1313</v>
+        <v>1300</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1370</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1399</v>
+      </c>
+      <c r="V43" t="s">
+        <v>1427</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1450</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -7714,91 +7794,67 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D44" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E44" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F44" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G44" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H44" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="I44" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="J44" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="K44" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="L44" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="M44" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="N44" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="O44" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="P44" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="Q44" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="R44" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="S44" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="T44" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="U44" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="V44" t="s">
-        <v>1441</v>
-      </c>
-      <c r="W44" t="s">
-        <v>1464</v>
-      </c>
-      <c r="X44" t="s">
-        <v>1485</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>1505</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>1560</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
@@ -7806,67 +7862,28 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E45" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F45" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G45" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I45" t="s">
-        <v>702</v>
-      </c>
-      <c r="J45" t="s">
-        <v>788</v>
-      </c>
-      <c r="K45" t="s">
-        <v>872</v>
-      </c>
-      <c r="L45" t="s">
-        <v>951</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1026</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1093</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1156</v>
-      </c>
-      <c r="P45" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>1269</v>
-      </c>
-      <c r="R45" t="s">
-        <v>1315</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1354</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1385</v>
-      </c>
-      <c r="U45" t="s">
-        <v>1414</v>
-      </c>
-      <c r="V45" t="s">
-        <v>1442</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
@@ -7874,28 +7891,97 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="E46" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F46" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H46" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="I46" t="s">
-        <v>703</v>
+        <v>696</v>
+      </c>
+      <c r="J46" t="s">
+        <v>780</v>
+      </c>
+      <c r="K46" t="s">
+        <v>863</v>
+      </c>
+      <c r="L46" t="s">
+        <v>941</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N46" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1143</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R46" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S46" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T46" t="s">
+        <v>1372</v>
+      </c>
+      <c r="U46" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V46" t="s">
+        <v>1429</v>
+      </c>
+      <c r="W46" t="s">
+        <v>1451</v>
+      </c>
+      <c r="X46" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
@@ -7903,97 +7989,55 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D47" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E47" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F47" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H47" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="I47" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="J47" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="K47" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="L47" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="M47" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="N47" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="O47" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="P47" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="Q47" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="R47" t="s">
-        <v>1316</v>
-      </c>
-      <c r="S47" t="s">
-        <v>1355</v>
-      </c>
-      <c r="T47" t="s">
-        <v>1386</v>
-      </c>
-      <c r="U47" t="s">
-        <v>1415</v>
-      </c>
-      <c r="V47" t="s">
-        <v>1443</v>
-      </c>
-      <c r="W47" t="s">
-        <v>1465</v>
-      </c>
-      <c r="X47" t="s">
-        <v>1486</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>1506</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>1555</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>1561</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>1564</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>1566</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
@@ -8001,55 +8045,49 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E48" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="F48" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G48" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H48" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="I48" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="J48" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="K48" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="L48" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="M48" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="N48" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="O48" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="P48" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>1271</v>
-      </c>
-      <c r="R48" t="s">
-        <v>1317</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -8057,49 +8095,49 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D49" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="E49" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G49" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H49" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I49" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="J49" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="K49" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="L49" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="M49" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="N49" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="O49" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="P49" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -8107,49 +8145,49 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="E50" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F50" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H50" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="I50" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="J50" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="K50" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="L50" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="M50" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="N50" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="O50" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="P50" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -8157,49 +8195,64 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="E51" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G51" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H51" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I51" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="J51" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="K51" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="L51" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="M51" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="N51" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="O51" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="P51" t="s">
-        <v>1220</v>
+        <v>1207</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1258</v>
+      </c>
+      <c r="R51" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S51" t="s">
+        <v>1342</v>
+      </c>
+      <c r="T51" t="s">
+        <v>1373</v>
+      </c>
+      <c r="U51" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -8207,64 +8260,37 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D52" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E52" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G52" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H52" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="I52" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J52" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="K52" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="L52" t="s">
-        <v>957</v>
-      </c>
-      <c r="M52" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N52" t="s">
-        <v>1099</v>
-      </c>
-      <c r="O52" t="s">
-        <v>1162</v>
-      </c>
-      <c r="P52" t="s">
-        <v>1221</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>1272</v>
-      </c>
-      <c r="R52" t="s">
-        <v>1318</v>
-      </c>
-      <c r="S52" t="s">
-        <v>1356</v>
-      </c>
-      <c r="T52" t="s">
-        <v>1387</v>
-      </c>
-      <c r="U52" t="s">
-        <v>1416</v>
+        <v>947</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -8272,37 +8298,34 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D53" t="s">
         <v>324</v>
       </c>
       <c r="E53" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F53" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G53" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H53" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="I53" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="J53" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="K53" t="s">
-        <v>879</v>
-      </c>
-      <c r="L53" t="s">
-        <v>958</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -8310,34 +8333,37 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D54" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G54" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H54" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I54" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J54" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="K54" t="s">
-        <v>880</v>
+        <v>871</v>
+      </c>
+      <c r="L54" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -8345,37 +8371,55 @@
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D55" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E55" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G55" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H55" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="I55" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="J55" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="K55" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="L55" t="s">
-        <v>959</v>
+        <v>949</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1149</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R55" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -8383,55 +8427,37 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D56" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F56" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G56" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H56" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="I56" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="J56" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="K56" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="L56" t="s">
-        <v>960</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N56" t="s">
-        <v>1100</v>
-      </c>
-      <c r="O56" t="s">
-        <v>1163</v>
-      </c>
-      <c r="P56" t="s">
-        <v>1222</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>1273</v>
-      </c>
-      <c r="R56" t="s">
-        <v>1319</v>
+        <v>950</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -8439,37 +8465,37 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D57" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E57" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F57" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G57" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H57" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I57" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="J57" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="K57" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="L57" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -8477,37 +8503,37 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F58" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H58" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="I58" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="J58" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="K58" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="L58" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -8515,37 +8541,58 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="E59" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G59" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H59" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="I59" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="J59" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="K59" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="L59" t="s">
-        <v>963</v>
+        <v>953</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1260</v>
+      </c>
+      <c r="R59" t="s">
+        <v>1306</v>
+      </c>
+      <c r="S59" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -8553,58 +8600,43 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D60" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G60" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H60" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="I60" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="J60" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="K60" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="L60" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="M60" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="N60" t="s">
-        <v>1101</v>
-      </c>
-      <c r="O60" t="s">
-        <v>1164</v>
-      </c>
-      <c r="P60" t="s">
-        <v>1223</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>1274</v>
-      </c>
-      <c r="R60" t="s">
-        <v>1320</v>
-      </c>
-      <c r="S60" t="s">
-        <v>1357</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -8612,43 +8644,34 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D61" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G61" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H61" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="I61" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="J61" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="K61" t="s">
-        <v>887</v>
-      </c>
-      <c r="L61" t="s">
-        <v>965</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N61" t="s">
-        <v>1102</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -8656,34 +8679,49 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F62" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G62" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H62" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I62" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="J62" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="K62" t="s">
-        <v>888</v>
+        <v>879</v>
+      </c>
+      <c r="L62" t="s">
+        <v>955</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1151</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -8691,49 +8729,55 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D63" t="s">
         <v>324</v>
       </c>
       <c r="E63" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F63" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H63" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I63" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="J63" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="K63" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="L63" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="M63" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="N63" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="O63" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="P63" t="s">
-        <v>1224</v>
+        <v>1211</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R63" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -8741,55 +8785,52 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E64" t="s">
         <v>361</v>
       </c>
       <c r="F64" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G64" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H64" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I64" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="J64" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="K64" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="L64" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="M64" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="N64" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="O64" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="P64" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="Q64" t="s">
-        <v>1275</v>
-      </c>
-      <c r="R64" t="s">
-        <v>1321</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
@@ -8797,52 +8838,52 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D65" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G65" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H65" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="I65" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="J65" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K65" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="L65" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="M65" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="N65" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="O65" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="P65" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="Q65" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
@@ -8850,52 +8891,85 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E66" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F66" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G66" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H66" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I66" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="J66" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="K66" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="L66" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="M66" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="N66" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="O66" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="P66" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="Q66" t="s">
-        <v>1277</v>
+        <v>1264</v>
+      </c>
+      <c r="R66" t="s">
+        <v>1308</v>
+      </c>
+      <c r="S66" t="s">
+        <v>1344</v>
+      </c>
+      <c r="T66" t="s">
+        <v>1374</v>
+      </c>
+      <c r="U66" t="s">
+        <v>1403</v>
+      </c>
+      <c r="V66" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W66" t="s">
+        <v>1452</v>
+      </c>
+      <c r="X66" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
@@ -8903,85 +8977,64 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D67" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="E67" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F67" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G67" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H67" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="I67" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="J67" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="K67" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="L67" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="M67" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="N67" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="O67" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="P67" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="Q67" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="R67" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="S67" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="T67" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="U67" t="s">
-        <v>1417</v>
-      </c>
-      <c r="V67" t="s">
-        <v>1444</v>
-      </c>
-      <c r="W67" t="s">
-        <v>1466</v>
-      </c>
-      <c r="X67" t="s">
-        <v>1487</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>1507</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>1524</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>1537</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>1547</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
@@ -8989,64 +9042,31 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D68" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="E68" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F68" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G68" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H68" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="I68" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="J68" t="s">
-        <v>810</v>
-      </c>
-      <c r="K68" t="s">
-        <v>894</v>
-      </c>
-      <c r="L68" t="s">
-        <v>971</v>
-      </c>
-      <c r="M68" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N68" t="s">
-        <v>1108</v>
-      </c>
-      <c r="O68" t="s">
-        <v>1170</v>
-      </c>
-      <c r="P68" t="s">
-        <v>1229</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>1279</v>
-      </c>
-      <c r="R68" t="s">
-        <v>1323</v>
-      </c>
-      <c r="S68" t="s">
-        <v>1359</v>
-      </c>
-      <c r="T68" t="s">
-        <v>1389</v>
-      </c>
-      <c r="U68" t="s">
-        <v>1418</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
@@ -9054,31 +9074,40 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G69" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H69" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I69" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J69" t="s">
-        <v>811</v>
+        <v>803</v>
+      </c>
+      <c r="K69" t="s">
+        <v>885</v>
+      </c>
+      <c r="L69" t="s">
+        <v>961</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
@@ -9086,40 +9115,37 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D70" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E70" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G70" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H70" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="I70" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="J70" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="K70" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="L70" t="s">
-        <v>972</v>
-      </c>
-      <c r="M70" t="s">
-        <v>1042</v>
+        <v>962</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -9127,37 +9153,49 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="E71" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F71" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G71" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H71" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I71" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="J71" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="K71" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="L71" t="s">
-        <v>973</v>
+        <v>963</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N71" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O71" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P71" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
@@ -9165,49 +9203,52 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D72" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E72" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G72" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H72" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I72" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="J72" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="K72" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="L72" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="M72" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="N72" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="O72" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="P72" t="s">
-        <v>1230</v>
+        <v>1217</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -9215,52 +9256,67 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D73" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E73" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="F73" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G73" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H73" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="I73" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="J73" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="K73" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="L73" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="M73" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="N73" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="O73" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="P73" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="Q73" t="s">
-        <v>1280</v>
+        <v>1267</v>
+      </c>
+      <c r="R73" t="s">
+        <v>1310</v>
+      </c>
+      <c r="S73" t="s">
+        <v>1346</v>
+      </c>
+      <c r="T73" t="s">
+        <v>1376</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1405</v>
+      </c>
+      <c r="V73" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
@@ -9268,67 +9324,43 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E74" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F74" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G74" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H74" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="I74" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="J74" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="K74" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="L74" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="M74" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="N74" t="s">
-        <v>1111</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1173</v>
-      </c>
-      <c r="P74" t="s">
-        <v>1232</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>1281</v>
-      </c>
-      <c r="R74" t="s">
-        <v>1324</v>
-      </c>
-      <c r="S74" t="s">
-        <v>1360</v>
-      </c>
-      <c r="T74" t="s">
-        <v>1390</v>
-      </c>
-      <c r="U74" t="s">
-        <v>1419</v>
-      </c>
-      <c r="V74" t="s">
-        <v>1445</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -9336,43 +9368,37 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E75" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F75" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G75" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H75" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I75" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="J75" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="K75" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="L75" t="s">
-        <v>977</v>
-      </c>
-      <c r="M75" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N75" t="s">
-        <v>1112</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
@@ -9380,37 +9406,25 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D76" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F76" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G76" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H76" t="s">
-        <v>642</v>
-      </c>
-      <c r="I76" t="s">
-        <v>733</v>
-      </c>
-      <c r="J76" t="s">
-        <v>818</v>
-      </c>
-      <c r="K76" t="s">
-        <v>901</v>
-      </c>
-      <c r="L76" t="s">
-        <v>978</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
@@ -9418,25 +9432,40 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D77" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="E77" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F77" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G77" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H77" t="s">
-        <v>643</v>
+        <v>637</v>
+      </c>
+      <c r="I77" t="s">
+        <v>726</v>
+      </c>
+      <c r="J77" t="s">
+        <v>810</v>
+      </c>
+      <c r="K77" t="s">
+        <v>892</v>
+      </c>
+      <c r="L77" t="s">
+        <v>968</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
@@ -9444,40 +9473,46 @@
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D78" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="E78" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G78" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H78" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I78" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="J78" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K78" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="L78" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="M78" t="s">
-        <v>1047</v>
+        <v>1036</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -9485,46 +9520,55 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D79" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E79" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G79" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H79" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I79" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="J79" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K79" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="L79" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="M79" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="N79" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="O79" t="s">
-        <v>1174</v>
+        <v>1161</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1219</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1268</v>
+      </c>
+      <c r="R79" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
@@ -9532,55 +9576,25 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E80" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="F80" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G80" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H80" t="s">
-        <v>646</v>
-      </c>
-      <c r="I80" t="s">
-        <v>736</v>
-      </c>
-      <c r="J80" t="s">
-        <v>821</v>
-      </c>
-      <c r="K80" t="s">
-        <v>904</v>
-      </c>
-      <c r="L80" t="s">
-        <v>981</v>
-      </c>
-      <c r="M80" t="s">
-        <v>1049</v>
-      </c>
-      <c r="N80" t="s">
-        <v>1114</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1175</v>
-      </c>
-      <c r="P80" t="s">
-        <v>1233</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>1282</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1325</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -9588,25 +9602,40 @@
         <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E81" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G81" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H81" t="s">
-        <v>647</v>
+        <v>641</v>
+      </c>
+      <c r="I81" t="s">
+        <v>729</v>
+      </c>
+      <c r="J81" t="s">
+        <v>813</v>
+      </c>
+      <c r="K81" t="s">
+        <v>895</v>
+      </c>
+      <c r="L81" t="s">
+        <v>971</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -9614,40 +9643,22 @@
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D82" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E82" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="F82" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G82" t="s">
-        <v>556</v>
-      </c>
-      <c r="H82" t="s">
-        <v>648</v>
-      </c>
-      <c r="I82" t="s">
-        <v>737</v>
-      </c>
-      <c r="J82" t="s">
-        <v>822</v>
-      </c>
-      <c r="K82" t="s">
-        <v>905</v>
-      </c>
-      <c r="L82" t="s">
-        <v>982</v>
-      </c>
-      <c r="M82" t="s">
-        <v>1050</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -9655,22 +9666,19 @@
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D83" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E83" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="F83" t="s">
-        <v>462</v>
-      </c>
-      <c r="G83" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -9678,103 +9686,161 @@
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E84" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F84" t="s">
-        <v>463</v>
+        <v>459</v>
+      </c>
+      <c r="G84" t="s">
+        <v>552</v>
+      </c>
+      <c r="H84" t="s">
+        <v>642</v>
+      </c>
+      <c r="I84" t="s">
+        <v>730</v>
+      </c>
+      <c r="J84" t="s">
+        <v>814</v>
+      </c>
+      <c r="K84" t="s">
+        <v>896</v>
+      </c>
+      <c r="L84" t="s">
+        <v>972</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1162</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1312</v>
+      </c>
+      <c r="S84" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>1553</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
-      </c>
-      <c r="C85" t="s">
-        <v>309</v>
-      </c>
-      <c r="D85" t="s">
-        <v>357</v>
-      </c>
-      <c r="E85" t="s">
-        <v>361</v>
+        <v>210</v>
+      </c>
+      <c r="C85" t="str">
+        <f>"0001585521"</f>
+        <v>0001585521</v>
+      </c>
+      <c r="D85" t="str">
+        <f>"7370"</f>
+        <v>7370</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f>"0131"</f>
+        <v>0131</v>
       </c>
       <c r="F85" t="s">
-        <v>464</v>
-      </c>
-      <c r="G85" t="s">
-        <v>558</v>
+        <v>1554</v>
       </c>
       <c r="H85" t="s">
-        <v>649</v>
-      </c>
-      <c r="I85" t="s">
-        <v>738</v>
-      </c>
-      <c r="J85" t="s">
-        <v>823</v>
-      </c>
-      <c r="K85" t="s">
-        <v>906</v>
-      </c>
-      <c r="L85" t="s">
-        <v>983</v>
-      </c>
-      <c r="M85" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N85" t="s">
-        <v>1115</v>
-      </c>
-      <c r="O85" t="s">
-        <v>1176</v>
-      </c>
-      <c r="P85" t="s">
-        <v>1234</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>1283</v>
-      </c>
-      <c r="R85" t="s">
-        <v>1326</v>
-      </c>
-      <c r="S85" t="s">
-        <v>1361</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1567</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" t="str">
-        <f>"0001585521"</f>
-        <v>0001585521</v>
-      </c>
-      <c r="D86" t="str">
-        <f>"7370"</f>
-        <v>7370</v>
-      </c>
-      <c r="E86" s="2">
-        <v>44227</v>
+        <v>211</v>
+      </c>
+      <c r="C86" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" t="s">
+        <v>357</v>
       </c>
       <c r="F86" t="s">
-        <v>1568</v>
+        <v>460</v>
+      </c>
+      <c r="G86" t="s">
+        <v>553</v>
       </c>
       <c r="H86" t="s">
-        <v>1569</v>
+        <v>643</v>
+      </c>
+      <c r="I86" t="s">
+        <v>731</v>
+      </c>
+      <c r="J86" t="s">
+        <v>815</v>
+      </c>
+      <c r="K86" t="s">
+        <v>897</v>
+      </c>
+      <c r="L86" t="s">
+        <v>973</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1163</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1270</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S86" t="s">
+        <v>1348</v>
+      </c>
+      <c r="T86" t="s">
+        <v>1377</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1406</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1432</v>
+      </c>
+      <c r="W86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="X86" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -9782,76 +9848,52 @@
         <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D87" t="s">
+        <v>337</v>
+      </c>
+      <c r="E87" t="s">
         <v>357</v>
       </c>
-      <c r="E87" t="s">
-        <v>361</v>
-      </c>
       <c r="F87" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G87" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H87" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I87" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="J87" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="K87" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="L87" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="M87" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="N87" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="O87" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="P87" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="Q87" t="s">
-        <v>1284</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1327</v>
-      </c>
-      <c r="S87" t="s">
-        <v>1362</v>
-      </c>
-      <c r="T87" t="s">
-        <v>1391</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1420</v>
-      </c>
-      <c r="V87" t="s">
-        <v>1446</v>
-      </c>
-      <c r="W87" t="s">
-        <v>1467</v>
-      </c>
-      <c r="X87" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>1508</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -9859,52 +9901,55 @@
         <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G88" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H88" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I88" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="J88" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="K88" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="L88" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="M88" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="N88" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="O88" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="P88" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="Q88" t="s">
-        <v>1285</v>
+        <v>1272</v>
+      </c>
+      <c r="R88" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -9912,55 +9957,22 @@
         <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D89" t="s">
-        <v>357</v>
-      </c>
-      <c r="E89" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F89" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G89" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H89" t="s">
-        <v>652</v>
-      </c>
-      <c r="I89" t="s">
-        <v>741</v>
-      </c>
-      <c r="J89" t="s">
-        <v>826</v>
-      </c>
-      <c r="K89" t="s">
-        <v>909</v>
-      </c>
-      <c r="L89" t="s">
-        <v>986</v>
-      </c>
-      <c r="M89" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N89" t="s">
-        <v>1118</v>
-      </c>
-      <c r="O89" t="s">
-        <v>1179</v>
-      </c>
-      <c r="P89" t="s">
-        <v>1237</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>1286</v>
-      </c>
-      <c r="R89" t="s">
-        <v>1328</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
@@ -9968,22 +9980,64 @@
         <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>354</v>
+      </c>
+      <c r="E90" t="s">
+        <v>366</v>
       </c>
       <c r="F90" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G90" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H90" t="s">
-        <v>653</v>
+        <v>647</v>
+      </c>
+      <c r="I90" t="s">
+        <v>734</v>
+      </c>
+      <c r="J90" t="s">
+        <v>818</v>
+      </c>
+      <c r="K90" t="s">
+        <v>900</v>
+      </c>
+      <c r="L90" t="s">
+        <v>976</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1166</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1315</v>
+      </c>
+      <c r="S90" t="s">
+        <v>1349</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1378</v>
+      </c>
+      <c r="U90" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -9991,64 +10045,16 @@
         <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D91" t="s">
-        <v>358</v>
-      </c>
-      <c r="E91" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="F91" t="s">
-        <v>469</v>
-      </c>
-      <c r="G91" t="s">
-        <v>563</v>
-      </c>
-      <c r="H91" t="s">
-        <v>654</v>
-      </c>
-      <c r="I91" t="s">
-        <v>742</v>
-      </c>
-      <c r="J91" t="s">
-        <v>827</v>
-      </c>
-      <c r="K91" t="s">
-        <v>910</v>
-      </c>
-      <c r="L91" t="s">
-        <v>987</v>
-      </c>
-      <c r="M91" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N91" t="s">
-        <v>1119</v>
-      </c>
-      <c r="O91" t="s">
-        <v>1180</v>
-      </c>
-      <c r="P91" t="s">
-        <v>1238</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>1287</v>
-      </c>
-      <c r="R91" t="s">
-        <v>1329</v>
-      </c>
-      <c r="S91" t="s">
-        <v>1363</v>
-      </c>
-      <c r="T91" t="s">
-        <v>1392</v>
-      </c>
-      <c r="U91" t="s">
-        <v>1421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
@@ -10056,16 +10062,28 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="E92" t="s">
+        <v>357</v>
       </c>
       <c r="F92" t="s">
-        <v>470</v>
+        <v>466</v>
+      </c>
+      <c r="G92" t="s">
+        <v>558</v>
+      </c>
+      <c r="H92" t="s">
+        <v>648</v>
+      </c>
+      <c r="I92" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -10073,28 +10091,82 @@
         <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E93" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F93" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G93" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H93" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="I93" t="s">
-        <v>743</v>
+        <v>736</v>
+      </c>
+      <c r="J93" t="s">
+        <v>819</v>
+      </c>
+      <c r="K93" t="s">
+        <v>901</v>
+      </c>
+      <c r="L93" t="s">
+        <v>977</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N93" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R93" t="s">
+        <v>1316</v>
+      </c>
+      <c r="S93" t="s">
+        <v>1350</v>
+      </c>
+      <c r="T93" t="s">
+        <v>1379</v>
+      </c>
+      <c r="U93" t="s">
+        <v>1408</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W93" t="s">
+        <v>1454</v>
+      </c>
+      <c r="X93" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>1495</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -10102,82 +10174,76 @@
         <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="E94" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F94" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G94" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H94" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I94" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="J94" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="K94" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="L94" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="M94" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="N94" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="O94" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="P94" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="Q94" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="R94" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="S94" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="T94" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="U94" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="V94" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="W94" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="X94" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="Y94" t="s">
-        <v>1509</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>1538</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -10185,76 +10251,64 @@
         <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E95" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F95" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G95" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H95" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I95" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="J95" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="K95" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="L95" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="M95" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="N95" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="O95" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="P95" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="Q95" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="R95" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="S95" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="T95" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="U95" t="s">
-        <v>1423</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1448</v>
-      </c>
-      <c r="W95" t="s">
-        <v>1469</v>
-      </c>
-      <c r="X95" t="s">
-        <v>1490</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>1510</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
@@ -10262,217 +10316,228 @@
         <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F96" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G96" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H96" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="I96" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="J96" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="K96" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="L96" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="M96" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="N96" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="O96" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="P96" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="Q96" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="R96" t="s">
-        <v>1332</v>
-      </c>
-      <c r="S96" t="s">
-        <v>1366</v>
-      </c>
-      <c r="T96" t="s">
-        <v>1395</v>
-      </c>
-      <c r="U96" t="s">
-        <v>1424</v>
+        <v>1319</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C97" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D97" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E97" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F97" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G97" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H97" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I97" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="J97" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="K97" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="L97" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="M97" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="N97" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="O97" t="s">
-        <v>1184</v>
-      </c>
-      <c r="P97" t="s">
-        <v>1242</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>1291</v>
-      </c>
-      <c r="R97" t="s">
-        <v>1333</v>
+        <v>1171</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D98" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F98" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G98" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H98" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="I98" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="J98" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="K98" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="L98" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="M98" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="N98" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="O98" t="s">
-        <v>1185</v>
+        <v>1172</v>
+      </c>
+      <c r="P98" t="s">
+        <v>1229</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>128</v>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>1556</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C99" t="s">
-        <v>322</v>
-      </c>
-      <c r="D99" t="s">
-        <v>360</v>
+        <v>1557</v>
+      </c>
+      <c r="C99" t="str">
+        <f>"0001166691"</f>
+        <v>0001166691</v>
+      </c>
+      <c r="D99" t="str">
+        <f>"4841"</f>
+        <v>4841</v>
       </c>
       <c r="E99" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F99" t="s">
-        <v>477</v>
+        <v>1558</v>
       </c>
       <c r="G99" t="s">
-        <v>570</v>
+        <v>1559</v>
       </c>
       <c r="H99" t="s">
-        <v>661</v>
+        <v>1560</v>
       </c>
       <c r="I99" t="s">
-        <v>749</v>
+        <v>1561</v>
       </c>
       <c r="J99" t="s">
-        <v>833</v>
+        <v>1562</v>
       </c>
       <c r="K99" t="s">
-        <v>916</v>
+        <v>1563</v>
       </c>
       <c r="L99" t="s">
-        <v>993</v>
+        <v>1564</v>
       </c>
       <c r="M99" t="s">
-        <v>1061</v>
+        <v>1565</v>
       </c>
       <c r="N99" t="s">
-        <v>1125</v>
+        <v>1566</v>
       </c>
       <c r="O99" t="s">
-        <v>1186</v>
+        <v>1567</v>
       </c>
       <c r="P99" t="s">
-        <v>1243</v>
+        <v>1568</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1569</v>
+      </c>
+      <c r="R99" t="s">
+        <v>1570</v>
+      </c>
+      <c r="S99" t="s">
+        <v>1571</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1572</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1573</v>
+      </c>
+      <c r="V99" t="s">
+        <v>1574</v>
+      </c>
+      <c r="W99" t="s">
+        <v>1575</v>
+      </c>
+      <c r="X99" t="s">
+        <v>1576</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT Universe Data.xlsx
+++ b/Data/TMT Universe Data.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10897DE0-349F-AF4C-A44A-F4E3FC32FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50FC29F-6F08-6F4A-A953-814DBED6FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1644">
   <si>
     <t>Name</t>
   </si>
@@ -195,9 +184,6 @@
     <t>DISH</t>
   </si>
   <si>
-    <t>DNB</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
@@ -378,6 +364,9 @@
     <t>AUD</t>
   </si>
   <si>
+    <t>ZM</t>
+  </si>
+  <si>
     <t>SIRI</t>
   </si>
   <si>
@@ -417,6 +406,36 @@
     <t>WWE</t>
   </si>
   <si>
+    <t>CMST</t>
+  </si>
+  <si>
+    <t>SFIX</t>
+  </si>
+  <si>
+    <t>CHWY</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>PRTS</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>LYFT</t>
+  </si>
+  <si>
     <t xml:space="preserve">A10 NETWORKS INC </t>
   </si>
   <si>
@@ -483,9 +502,6 @@
     <t>Dish Network</t>
   </si>
   <si>
-    <t>Dun &amp; Bradstreet Holdings</t>
-  </si>
-  <si>
     <t>Electronic Arts Inc.</t>
   </si>
   <si>
@@ -705,6 +721,36 @@
     <t>World Wresteling Entertainment</t>
   </si>
   <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>Stitch Fix</t>
+  </si>
+  <si>
+    <t>Chewy.com</t>
+  </si>
+  <si>
+    <t>Ringcentral</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>Carparts</t>
+  </si>
+  <si>
+    <t>DoorDash</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Unity Software</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
     <t>0001580808</t>
   </si>
   <si>
@@ -771,9 +817,6 @@
     <t>0001001082</t>
   </si>
   <si>
-    <t>0001799208</t>
-  </si>
-  <si>
     <t>0000712515</t>
   </si>
   <si>
@@ -954,6 +997,9 @@
     <t>0001067837</t>
   </si>
   <si>
+    <t>0001585521</t>
+  </si>
+  <si>
     <t>0000908937</t>
   </si>
   <si>
@@ -993,6 +1039,36 @@
     <t>0001091907</t>
   </si>
   <si>
+    <t>0001166691</t>
+  </si>
+  <si>
+    <t>0001576942</t>
+  </si>
+  <si>
+    <t>0001766502</t>
+  </si>
+  <si>
+    <t>0001384905</t>
+  </si>
+  <si>
+    <t>0001370637</t>
+  </si>
+  <si>
+    <t>0001378950</t>
+  </si>
+  <si>
+    <t>0001792789</t>
+  </si>
+  <si>
+    <t>0001543151</t>
+  </si>
+  <si>
+    <t>0001810806</t>
+  </si>
+  <si>
+    <t>0001759509</t>
+  </si>
+  <si>
     <t>3576</t>
   </si>
   <si>
@@ -1104,6 +1180,9 @@
     <t>7812</t>
   </si>
   <si>
+    <t>5531</t>
+  </si>
+  <si>
     <t>1231</t>
   </si>
   <si>
@@ -1164,6 +1243,12 @@
     <t>1002</t>
   </si>
   <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
     <t>0001580808-21-000043</t>
   </si>
   <si>
@@ -1230,9 +1315,6 @@
     <t>0001558370-21-001322</t>
   </si>
   <si>
-    <t>0001799208-21-000013</t>
-  </si>
-  <si>
     <t>0000712515-21-000064</t>
   </si>
   <si>
@@ -1413,6 +1495,9 @@
     <t>0001628280-21-003544</t>
   </si>
   <si>
+    <t>0001585521-21-000048</t>
+  </si>
+  <si>
     <t>0000908937-21-000015</t>
   </si>
   <si>
@@ -1452,6 +1537,36 @@
     <t>0001091907-21-000009</t>
   </si>
   <si>
+    <t>0001166691-21-000008</t>
+  </si>
+  <si>
+    <t>0001576942-20-000077</t>
+  </si>
+  <si>
+    <t>0001766502-21-000008</t>
+  </si>
+  <si>
+    <t>0001384905-21-000007</t>
+  </si>
+  <si>
+    <t>0001370637-21-000012</t>
+  </si>
+  <si>
+    <t>0001558370-21-003023</t>
+  </si>
+  <si>
+    <t>0001628280-21-004032</t>
+  </si>
+  <si>
+    <t>0001543151-21-000014</t>
+  </si>
+  <si>
+    <t>0001810806-21-000052</t>
+  </si>
+  <si>
+    <t>0001759509-21-000011</t>
+  </si>
+  <si>
     <t>0001580808-20-000014</t>
   </si>
   <si>
@@ -1692,6 +1807,9 @@
     <t>0001628280-20-002635</t>
   </si>
   <si>
+    <t>0001585521-20-000095</t>
+  </si>
+  <si>
     <t>0000908937-20-000011</t>
   </si>
   <si>
@@ -1728,6 +1846,30 @@
     <t>0001091907-20-000011</t>
   </si>
   <si>
+    <t>0001166691-20-000008</t>
+  </si>
+  <si>
+    <t>0001576942-19-000013</t>
+  </si>
+  <si>
+    <t>0001766502-20-000007</t>
+  </si>
+  <si>
+    <t>0001384905-20-000008</t>
+  </si>
+  <si>
+    <t>0001370637-20-000046</t>
+  </si>
+  <si>
+    <t>0001558370-20-002264</t>
+  </si>
+  <si>
+    <t>0001543151-20-000010</t>
+  </si>
+  <si>
+    <t>0001759509-20-000009</t>
+  </si>
+  <si>
     <t>0001628280-19-003017</t>
   </si>
   <si>
@@ -1998,6 +2140,21 @@
     <t>0001091907-19-000016</t>
   </si>
   <si>
+    <t>0001166691-19-000005</t>
+  </si>
+  <si>
+    <t>0001576942-18-000003</t>
+  </si>
+  <si>
+    <t>0001564590-19-004630</t>
+  </si>
+  <si>
+    <t>0001370637-19-000028</t>
+  </si>
+  <si>
+    <t>0001558370-19-001882</t>
+  </si>
+  <si>
     <t>0001628280-18-011503</t>
   </si>
   <si>
@@ -2259,6 +2416,18 @@
     <t>0001091907-18-000008</t>
   </si>
   <si>
+    <t>0001166691-18-000004</t>
+  </si>
+  <si>
+    <t>0001564590-18-003245</t>
+  </si>
+  <si>
+    <t>0001370637-18-000020</t>
+  </si>
+  <si>
+    <t>0001628280-18-003196</t>
+  </si>
+  <si>
     <t>0001580808-17-000013</t>
   </si>
   <si>
@@ -2508,6 +2677,18 @@
     <t>0001091907-17-000008</t>
   </si>
   <si>
+    <t>0001193125-17-030512</t>
+  </si>
+  <si>
+    <t>0001564590-17-002718</t>
+  </si>
+  <si>
+    <t>0001370637-17-000018</t>
+  </si>
+  <si>
+    <t>0001378950-17-000008</t>
+  </si>
+  <si>
     <t>0001580808-16-000073</t>
   </si>
   <si>
@@ -2754,6 +2935,18 @@
     <t>0001091907-16-000046</t>
   </si>
   <si>
+    <t>0001193125-16-452423</t>
+  </si>
+  <si>
+    <t>0001564590-16-013637</t>
+  </si>
+  <si>
+    <t>0001370637-16-000032</t>
+  </si>
+  <si>
+    <t>0001628280-16-012612</t>
+  </si>
+  <si>
     <t>0001580808-15-000010</t>
   </si>
   <si>
@@ -2889,9 +3082,6 @@
     <t>0001564590-15-001223</t>
   </si>
   <si>
-    <t>0001108524-15-000008</t>
-  </si>
-  <si>
     <t>0001034054-15-000004</t>
   </si>
   <si>
@@ -2982,6 +3172,15 @@
     <t>0001091907-15-000012</t>
   </si>
   <si>
+    <t>0001193125-15-068526</t>
+  </si>
+  <si>
+    <t>0001564590-15-001097</t>
+  </si>
+  <si>
+    <t>0001378950-15-000019</t>
+  </si>
+  <si>
     <t>0001047469-14-001688</t>
   </si>
   <si>
@@ -3183,6 +3382,15 @@
     <t>0001091907-14-000008</t>
   </si>
   <si>
+    <t>0001193125-14-047522</t>
+  </si>
+  <si>
+    <t>0001564590-14-000347</t>
+  </si>
+  <si>
+    <t>0001193125-14-094601</t>
+  </si>
+  <si>
     <t>0001047469-13-001506</t>
   </si>
   <si>
@@ -3372,6 +3580,12 @@
     <t>0001445305-13-000441</t>
   </si>
   <si>
+    <t>0001193125-13-067658</t>
+  </si>
+  <si>
+    <t>0001193125-13-124321</t>
+  </si>
+  <si>
     <t>0001047469-12-001775</t>
   </si>
   <si>
@@ -3552,6 +3766,12 @@
     <t>0001206774-12-000891</t>
   </si>
   <si>
+    <t>0001193125-12-073905</t>
+  </si>
+  <si>
+    <t>0001193125-12-132332</t>
+  </si>
+  <si>
     <t>0001047469-11-001413</t>
   </si>
   <si>
@@ -3723,6 +3943,12 @@
     <t>0001206774-11-000440</t>
   </si>
   <si>
+    <t>0001193125-11-047243</t>
+  </si>
+  <si>
+    <t>0001193125-11-069986</t>
+  </si>
+  <si>
     <t>0001047469-10-001649</t>
   </si>
   <si>
@@ -3867,6 +4093,12 @@
     <t>0000950123-10-018216</t>
   </si>
   <si>
+    <t>0001193125-10-037551</t>
+  </si>
+  <si>
+    <t>0001193125-10-055854</t>
+  </si>
+  <si>
     <t>0001047469-09-002015</t>
   </si>
   <si>
@@ -3993,6 +4225,12 @@
     <t>0001193125-09-032396</t>
   </si>
   <si>
+    <t>0001193125-09-033975</t>
+  </si>
+  <si>
+    <t>0001193125-09-064323</t>
+  </si>
+  <si>
     <t>0001047469-08-000497</t>
   </si>
   <si>
@@ -4092,6 +4330,12 @@
     <t>0000950123-08-002315</t>
   </si>
   <si>
+    <t>0001193125-08-034239</t>
+  </si>
+  <si>
+    <t>0001193125-08-069402</t>
+  </si>
+  <si>
     <t>0001104659-07-007286</t>
   </si>
   <si>
@@ -4179,6 +4423,12 @@
     <t>0000950123-07-002858</t>
   </si>
   <si>
+    <t>0001193125-07-039301</t>
+  </si>
+  <si>
+    <t>0001193125-07-072401</t>
+  </si>
+  <si>
     <t>0001047469-06-001601</t>
   </si>
   <si>
@@ -4266,6 +4516,9 @@
     <t>0000950123-06-003501</t>
   </si>
   <si>
+    <t>0001193125-06-036698</t>
+  </si>
+  <si>
     <t>0001047469-05-002143</t>
   </si>
   <si>
@@ -4338,6 +4591,9 @@
     <t>0001047469-05-006738</t>
   </si>
   <si>
+    <t>0001047469-05-004437</t>
+  </si>
+  <si>
     <t>0001047469-04-003345</t>
   </si>
   <si>
@@ -4401,6 +4657,9 @@
     <t>0001047469-04-008077</t>
   </si>
   <si>
+    <t>0000950159-04-000281</t>
+  </si>
+  <si>
     <t>0001174947-03-000004</t>
   </si>
   <si>
@@ -4464,6 +4723,9 @@
     <t>0001047469-03-011015</t>
   </si>
   <si>
+    <t>0000950159-03-000238</t>
+  </si>
+  <si>
     <t>0000912057-02-007164</t>
   </si>
   <si>
@@ -4690,78 +4952,6 @@
   </si>
   <si>
     <t>0000912057-94-001081</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>0001585521-21-000048</t>
-  </si>
-  <si>
-    <t>0001585521-20-000095</t>
-  </si>
-  <si>
-    <t>CMST</t>
-  </si>
-  <si>
-    <t>Comcast</t>
-  </si>
-  <si>
-    <t>0001166691-21-000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001166691-20-000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001166691-19-000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001166691-18-000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-17-030512</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-16-452423</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-15-068526</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-14-047522</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-13-067658</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-12-073905</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-11-047243</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-10-037551</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-09-033975</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-08-034239</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-07-039301</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001193125-06-036698</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001047469-05-004437</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0000950159-04-000281</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0000950159-03-000238</t>
   </si>
 </sst>
 </file>
@@ -4793,7 +4983,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4816,28 +5006,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5178,10 +5353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF99"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5289,37 +5464,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="G2" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="H2" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="I2" t="s">
-        <v>655</v>
+        <v>711</v>
       </c>
       <c r="J2" t="s">
-        <v>742</v>
+        <v>802</v>
       </c>
       <c r="K2" t="s">
-        <v>825</v>
+        <v>889</v>
       </c>
       <c r="L2" t="s">
-        <v>907</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -5327,55 +5502,55 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="H3" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="I3" t="s">
-        <v>656</v>
+        <v>712</v>
       </c>
       <c r="J3" t="s">
-        <v>743</v>
+        <v>803</v>
       </c>
       <c r="K3" t="s">
-        <v>826</v>
+        <v>890</v>
       </c>
       <c r="L3" t="s">
-        <v>908</v>
+        <v>976</v>
       </c>
       <c r="M3" t="s">
-        <v>983</v>
+        <v>1053</v>
       </c>
       <c r="N3" t="s">
-        <v>1050</v>
+        <v>1123</v>
       </c>
       <c r="O3" t="s">
-        <v>1113</v>
+        <v>1188</v>
       </c>
       <c r="P3" t="s">
-        <v>1173</v>
+        <v>1250</v>
       </c>
       <c r="Q3" t="s">
-        <v>1230</v>
+        <v>1309</v>
       </c>
       <c r="R3" t="s">
-        <v>1278</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -5383,97 +5558,97 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="G4" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="H4" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="I4" t="s">
-        <v>657</v>
+        <v>713</v>
       </c>
       <c r="J4" t="s">
-        <v>744</v>
+        <v>804</v>
       </c>
       <c r="K4" t="s">
-        <v>827</v>
+        <v>891</v>
       </c>
       <c r="L4" t="s">
-        <v>909</v>
+        <v>977</v>
       </c>
       <c r="M4" t="s">
-        <v>984</v>
+        <v>1054</v>
       </c>
       <c r="N4" t="s">
-        <v>1051</v>
+        <v>1124</v>
       </c>
       <c r="O4" t="s">
-        <v>1114</v>
+        <v>1189</v>
       </c>
       <c r="P4" t="s">
-        <v>1174</v>
+        <v>1251</v>
       </c>
       <c r="Q4" t="s">
-        <v>1231</v>
+        <v>1310</v>
       </c>
       <c r="R4" t="s">
-        <v>1279</v>
+        <v>1360</v>
       </c>
       <c r="S4" t="s">
-        <v>1320</v>
+        <v>1403</v>
       </c>
       <c r="T4" t="s">
-        <v>1353</v>
+        <v>1438</v>
       </c>
       <c r="U4" t="s">
-        <v>1382</v>
+        <v>1469</v>
       </c>
       <c r="V4" t="s">
-        <v>1411</v>
+        <v>1499</v>
       </c>
       <c r="W4" t="s">
-        <v>1435</v>
+        <v>1524</v>
       </c>
       <c r="X4" t="s">
-        <v>1456</v>
+        <v>1546</v>
       </c>
       <c r="Y4" t="s">
-        <v>1477</v>
+        <v>1568</v>
       </c>
       <c r="Z4" t="s">
-        <v>1497</v>
+        <v>1588</v>
       </c>
       <c r="AA4" t="s">
-        <v>1512</v>
+        <v>1603</v>
       </c>
       <c r="AB4" t="s">
-        <v>1525</v>
+        <v>1616</v>
       </c>
       <c r="AC4" t="s">
-        <v>1534</v>
+        <v>1625</v>
       </c>
       <c r="AD4" t="s">
-        <v>1542</v>
+        <v>1633</v>
       </c>
       <c r="AE4" t="s">
-        <v>1548</v>
+        <v>1639</v>
       </c>
       <c r="AF4" t="s">
-        <v>1551</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -5481,88 +5656,88 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="G5" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="I5" t="s">
-        <v>658</v>
+        <v>714</v>
       </c>
       <c r="J5" t="s">
-        <v>745</v>
+        <v>805</v>
       </c>
       <c r="K5" t="s">
-        <v>828</v>
+        <v>892</v>
       </c>
       <c r="L5" t="s">
-        <v>910</v>
+        <v>978</v>
       </c>
       <c r="M5" t="s">
-        <v>985</v>
+        <v>1055</v>
       </c>
       <c r="N5" t="s">
-        <v>1052</v>
+        <v>1125</v>
       </c>
       <c r="O5" t="s">
-        <v>1115</v>
+        <v>1190</v>
       </c>
       <c r="P5" t="s">
-        <v>1175</v>
+        <v>1252</v>
       </c>
       <c r="Q5" t="s">
-        <v>1232</v>
+        <v>1311</v>
       </c>
       <c r="R5" t="s">
-        <v>1280</v>
+        <v>1361</v>
       </c>
       <c r="S5" t="s">
-        <v>1321</v>
+        <v>1404</v>
       </c>
       <c r="T5" t="s">
-        <v>1354</v>
+        <v>1439</v>
       </c>
       <c r="U5" t="s">
-        <v>1383</v>
+        <v>1470</v>
       </c>
       <c r="V5" t="s">
-        <v>1412</v>
+        <v>1500</v>
       </c>
       <c r="W5" t="s">
-        <v>1436</v>
+        <v>1525</v>
       </c>
       <c r="X5" t="s">
-        <v>1457</v>
+        <v>1547</v>
       </c>
       <c r="Y5" t="s">
-        <v>1478</v>
+        <v>1569</v>
       </c>
       <c r="Z5" t="s">
-        <v>1498</v>
+        <v>1589</v>
       </c>
       <c r="AA5" t="s">
-        <v>1513</v>
+        <v>1604</v>
       </c>
       <c r="AB5" t="s">
-        <v>1526</v>
+        <v>1617</v>
       </c>
       <c r="AC5" t="s">
-        <v>1535</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -5570,19 +5745,19 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -5590,76 +5765,76 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="H7" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="I7" t="s">
-        <v>659</v>
+        <v>715</v>
       </c>
       <c r="J7" t="s">
-        <v>746</v>
+        <v>806</v>
       </c>
       <c r="K7" t="s">
-        <v>829</v>
+        <v>893</v>
       </c>
       <c r="L7" t="s">
-        <v>911</v>
+        <v>979</v>
       </c>
       <c r="M7" t="s">
-        <v>986</v>
+        <v>1056</v>
       </c>
       <c r="N7" t="s">
-        <v>1053</v>
+        <v>1126</v>
       </c>
       <c r="O7" t="s">
-        <v>1116</v>
+        <v>1191</v>
       </c>
       <c r="P7" t="s">
-        <v>1176</v>
+        <v>1253</v>
       </c>
       <c r="Q7" t="s">
-        <v>1233</v>
+        <v>1312</v>
       </c>
       <c r="R7" t="s">
-        <v>1281</v>
+        <v>1362</v>
       </c>
       <c r="S7" t="s">
-        <v>1322</v>
+        <v>1405</v>
       </c>
       <c r="T7" t="s">
-        <v>1355</v>
+        <v>1440</v>
       </c>
       <c r="U7" t="s">
-        <v>1384</v>
+        <v>1471</v>
       </c>
       <c r="V7" t="s">
-        <v>1413</v>
+        <v>1501</v>
       </c>
       <c r="W7" t="s">
-        <v>1437</v>
+        <v>1526</v>
       </c>
       <c r="X7" t="s">
-        <v>1458</v>
+        <v>1548</v>
       </c>
       <c r="Y7" t="s">
-        <v>1479</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -5667,28 +5842,28 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F8" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="G8" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="I8" t="s">
-        <v>660</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -5696,79 +5871,79 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F9" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="G9" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="H9" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="I9" t="s">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="J9" t="s">
-        <v>747</v>
+        <v>807</v>
       </c>
       <c r="K9" t="s">
-        <v>830</v>
+        <v>894</v>
       </c>
       <c r="L9" t="s">
-        <v>912</v>
+        <v>980</v>
       </c>
       <c r="M9" t="s">
-        <v>987</v>
+        <v>1057</v>
       </c>
       <c r="N9" t="s">
-        <v>1054</v>
+        <v>1127</v>
       </c>
       <c r="O9" t="s">
-        <v>1117</v>
+        <v>1192</v>
       </c>
       <c r="P9" t="s">
-        <v>1177</v>
+        <v>1254</v>
       </c>
       <c r="Q9" t="s">
-        <v>1234</v>
+        <v>1313</v>
       </c>
       <c r="R9" t="s">
-        <v>1282</v>
+        <v>1363</v>
       </c>
       <c r="S9" t="s">
-        <v>1323</v>
+        <v>1406</v>
       </c>
       <c r="T9" t="s">
-        <v>1356</v>
+        <v>1441</v>
       </c>
       <c r="U9" t="s">
-        <v>1385</v>
+        <v>1472</v>
       </c>
       <c r="V9" t="s">
-        <v>1414</v>
+        <v>1502</v>
       </c>
       <c r="W9" t="s">
-        <v>1438</v>
+        <v>1527</v>
       </c>
       <c r="X9" t="s">
-        <v>1459</v>
+        <v>1549</v>
       </c>
       <c r="Y9" t="s">
-        <v>1480</v>
+        <v>1571</v>
       </c>
       <c r="Z9" t="s">
-        <v>1499</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -5776,40 +5951,40 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="H10" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="I10" t="s">
-        <v>662</v>
+        <v>718</v>
       </c>
       <c r="J10" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
       <c r="K10" t="s">
-        <v>831</v>
+        <v>895</v>
       </c>
       <c r="L10" t="s">
-        <v>913</v>
+        <v>981</v>
       </c>
       <c r="M10" t="s">
-        <v>988</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5817,46 +5992,46 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E11" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G11" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="I11" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="J11" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K11" t="s">
-        <v>832</v>
+        <v>896</v>
       </c>
       <c r="L11" t="s">
-        <v>914</v>
+        <v>982</v>
       </c>
       <c r="M11" t="s">
-        <v>989</v>
+        <v>1059</v>
       </c>
       <c r="N11" t="s">
-        <v>1055</v>
+        <v>1128</v>
       </c>
       <c r="O11" t="s">
-        <v>1118</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -5864,28 +6039,28 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="E12" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F12" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="G12" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="H12" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="I12" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -5893,34 +6068,34 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="H13" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="I13" t="s">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="J13" t="s">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="K13" t="s">
-        <v>833</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -5928,91 +6103,91 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="F14" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="G14" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="H14" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="I14" t="s">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="J14" t="s">
-        <v>751</v>
+        <v>811</v>
       </c>
       <c r="K14" t="s">
-        <v>834</v>
+        <v>898</v>
       </c>
       <c r="L14" t="s">
-        <v>915</v>
+        <v>983</v>
       </c>
       <c r="M14" t="s">
-        <v>990</v>
+        <v>1060</v>
       </c>
       <c r="N14" t="s">
-        <v>1056</v>
+        <v>1129</v>
       </c>
       <c r="O14" t="s">
-        <v>1119</v>
+        <v>1194</v>
       </c>
       <c r="P14" t="s">
-        <v>1178</v>
+        <v>1255</v>
       </c>
       <c r="Q14" t="s">
-        <v>1235</v>
+        <v>1314</v>
       </c>
       <c r="R14" t="s">
-        <v>1283</v>
+        <v>1364</v>
       </c>
       <c r="S14" t="s">
-        <v>1324</v>
+        <v>1407</v>
       </c>
       <c r="T14" t="s">
-        <v>1357</v>
+        <v>1442</v>
       </c>
       <c r="U14" t="s">
-        <v>1386</v>
+        <v>1473</v>
       </c>
       <c r="V14" t="s">
-        <v>1415</v>
+        <v>1503</v>
       </c>
       <c r="W14" t="s">
-        <v>1439</v>
+        <v>1528</v>
       </c>
       <c r="X14" t="s">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Y14" t="s">
-        <v>1481</v>
+        <v>1572</v>
       </c>
       <c r="Z14" t="s">
-        <v>1500</v>
+        <v>1591</v>
       </c>
       <c r="AA14" t="s">
-        <v>1514</v>
+        <v>1605</v>
       </c>
       <c r="AB14" t="s">
-        <v>1527</v>
+        <v>1618</v>
       </c>
       <c r="AC14" t="s">
-        <v>1536</v>
+        <v>1627</v>
       </c>
       <c r="AD14" t="s">
-        <v>1543</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -6020,52 +6195,52 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E15" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="F15" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="G15" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="H15" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="I15" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="J15" t="s">
-        <v>752</v>
+        <v>812</v>
       </c>
       <c r="K15" t="s">
-        <v>835</v>
+        <v>899</v>
       </c>
       <c r="L15" t="s">
-        <v>916</v>
+        <v>984</v>
       </c>
       <c r="M15" t="s">
-        <v>991</v>
+        <v>1061</v>
       </c>
       <c r="N15" t="s">
-        <v>1057</v>
+        <v>1130</v>
       </c>
       <c r="O15" t="s">
-        <v>1120</v>
+        <v>1195</v>
       </c>
       <c r="P15" t="s">
-        <v>1179</v>
+        <v>1256</v>
       </c>
       <c r="Q15" t="s">
-        <v>1236</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -6073,88 +6248,88 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E16" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="F16" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="G16" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="H16" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="I16" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="J16" t="s">
-        <v>753</v>
+        <v>813</v>
       </c>
       <c r="K16" t="s">
-        <v>836</v>
+        <v>900</v>
       </c>
       <c r="L16" t="s">
-        <v>917</v>
+        <v>985</v>
       </c>
       <c r="M16" t="s">
-        <v>992</v>
+        <v>1062</v>
       </c>
       <c r="N16" t="s">
-        <v>1058</v>
+        <v>1131</v>
       </c>
       <c r="O16" t="s">
-        <v>1121</v>
+        <v>1196</v>
       </c>
       <c r="P16" t="s">
-        <v>1180</v>
+        <v>1257</v>
       </c>
       <c r="Q16" t="s">
-        <v>1237</v>
+        <v>1316</v>
       </c>
       <c r="R16" t="s">
-        <v>1284</v>
+        <v>1365</v>
       </c>
       <c r="S16" t="s">
-        <v>1325</v>
+        <v>1408</v>
       </c>
       <c r="T16" t="s">
-        <v>1358</v>
+        <v>1443</v>
       </c>
       <c r="U16" t="s">
-        <v>1387</v>
+        <v>1474</v>
       </c>
       <c r="V16" t="s">
-        <v>1416</v>
+        <v>1504</v>
       </c>
       <c r="W16" t="s">
-        <v>1440</v>
+        <v>1529</v>
       </c>
       <c r="X16" t="s">
-        <v>1461</v>
+        <v>1551</v>
       </c>
       <c r="Y16" t="s">
-        <v>1482</v>
+        <v>1573</v>
       </c>
       <c r="Z16" t="s">
-        <v>1501</v>
+        <v>1592</v>
       </c>
       <c r="AA16" t="s">
-        <v>1515</v>
+        <v>1606</v>
       </c>
       <c r="AB16" t="s">
-        <v>1528</v>
+        <v>1619</v>
       </c>
       <c r="AC16" t="s">
-        <v>1537</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -6162,91 +6337,91 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="G17" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="H17" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="I17" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="J17" t="s">
-        <v>754</v>
+        <v>814</v>
       </c>
       <c r="K17" t="s">
-        <v>837</v>
+        <v>901</v>
       </c>
       <c r="L17" t="s">
-        <v>918</v>
+        <v>986</v>
       </c>
       <c r="M17" t="s">
-        <v>993</v>
+        <v>1063</v>
       </c>
       <c r="N17" t="s">
-        <v>1059</v>
+        <v>1132</v>
       </c>
       <c r="O17" t="s">
-        <v>1122</v>
+        <v>1197</v>
       </c>
       <c r="P17" t="s">
-        <v>1181</v>
+        <v>1258</v>
       </c>
       <c r="Q17" t="s">
-        <v>1238</v>
+        <v>1317</v>
       </c>
       <c r="R17" t="s">
-        <v>1285</v>
+        <v>1366</v>
       </c>
       <c r="S17" t="s">
-        <v>1326</v>
+        <v>1409</v>
       </c>
       <c r="T17" t="s">
-        <v>1359</v>
+        <v>1444</v>
       </c>
       <c r="U17" t="s">
-        <v>1388</v>
+        <v>1475</v>
       </c>
       <c r="V17" t="s">
-        <v>1417</v>
+        <v>1505</v>
       </c>
       <c r="W17" t="s">
-        <v>1441</v>
+        <v>1530</v>
       </c>
       <c r="X17" t="s">
-        <v>1462</v>
+        <v>1552</v>
       </c>
       <c r="Y17" t="s">
-        <v>1483</v>
+        <v>1574</v>
       </c>
       <c r="Z17" t="s">
-        <v>1502</v>
+        <v>1593</v>
       </c>
       <c r="AA17" t="s">
-        <v>1516</v>
+        <v>1607</v>
       </c>
       <c r="AB17" t="s">
-        <v>1529</v>
+        <v>1620</v>
       </c>
       <c r="AC17" t="s">
-        <v>1538</v>
+        <v>1629</v>
       </c>
       <c r="AD17" t="s">
-        <v>1544</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -6254,34 +6429,34 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E18" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="G18" t="s">
-        <v>488</v>
+        <v>530</v>
       </c>
       <c r="H18" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="I18" t="s">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="J18" t="s">
-        <v>755</v>
+        <v>815</v>
       </c>
       <c r="K18" t="s">
-        <v>838</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -6289,55 +6464,55 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="E19" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="G19" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="H19" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="I19" t="s">
-        <v>671</v>
+        <v>727</v>
       </c>
       <c r="J19" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="K19" t="s">
-        <v>839</v>
+        <v>903</v>
       </c>
       <c r="L19" t="s">
-        <v>919</v>
+        <v>987</v>
       </c>
       <c r="M19" t="s">
-        <v>994</v>
+        <v>1064</v>
       </c>
       <c r="N19" t="s">
-        <v>1060</v>
+        <v>1133</v>
       </c>
       <c r="O19" t="s">
-        <v>1123</v>
+        <v>1198</v>
       </c>
       <c r="P19" t="s">
-        <v>1182</v>
+        <v>1259</v>
       </c>
       <c r="Q19" t="s">
-        <v>1239</v>
+        <v>1318</v>
       </c>
       <c r="R19" t="s">
-        <v>1286</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -6345,58 +6520,58 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F20" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="G20" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="H20" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="I20" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
       <c r="J20" t="s">
-        <v>757</v>
+        <v>817</v>
       </c>
       <c r="K20" t="s">
-        <v>840</v>
+        <v>904</v>
       </c>
       <c r="L20" t="s">
-        <v>920</v>
+        <v>988</v>
       </c>
       <c r="M20" t="s">
-        <v>995</v>
+        <v>1065</v>
       </c>
       <c r="N20" t="s">
-        <v>1061</v>
+        <v>1134</v>
       </c>
       <c r="O20" t="s">
-        <v>1124</v>
+        <v>1199</v>
       </c>
       <c r="P20" t="s">
-        <v>1183</v>
+        <v>1260</v>
       </c>
       <c r="Q20" t="s">
-        <v>1240</v>
+        <v>1319</v>
       </c>
       <c r="R20" t="s">
-        <v>1287</v>
+        <v>1368</v>
       </c>
       <c r="S20" t="s">
-        <v>1327</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -6404,79 +6579,79 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E21" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="G21" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="H21" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="I21" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
       <c r="J21" t="s">
-        <v>758</v>
+        <v>818</v>
       </c>
       <c r="K21" t="s">
-        <v>841</v>
+        <v>905</v>
       </c>
       <c r="L21" t="s">
-        <v>921</v>
+        <v>989</v>
       </c>
       <c r="M21" t="s">
-        <v>996</v>
+        <v>1066</v>
       </c>
       <c r="N21" t="s">
-        <v>1062</v>
+        <v>1135</v>
       </c>
       <c r="O21" t="s">
-        <v>1125</v>
+        <v>1200</v>
       </c>
       <c r="P21" t="s">
-        <v>1184</v>
+        <v>1261</v>
       </c>
       <c r="Q21" t="s">
-        <v>1241</v>
+        <v>1320</v>
       </c>
       <c r="R21" t="s">
-        <v>1288</v>
+        <v>1369</v>
       </c>
       <c r="S21" t="s">
-        <v>1328</v>
+        <v>1411</v>
       </c>
       <c r="T21" t="s">
-        <v>1360</v>
+        <v>1445</v>
       </c>
       <c r="U21" t="s">
-        <v>1389</v>
+        <v>1476</v>
       </c>
       <c r="V21" t="s">
-        <v>1418</v>
+        <v>1506</v>
       </c>
       <c r="W21" t="s">
-        <v>1442</v>
+        <v>1531</v>
       </c>
       <c r="X21" t="s">
-        <v>1463</v>
+        <v>1553</v>
       </c>
       <c r="Y21" t="s">
-        <v>1484</v>
+        <v>1575</v>
       </c>
       <c r="Z21" t="s">
-        <v>1503</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -6484,67 +6659,67 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="E22" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="G22" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="H22" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="I22" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="J22" t="s">
-        <v>759</v>
+        <v>819</v>
       </c>
       <c r="K22" t="s">
-        <v>842</v>
+        <v>906</v>
       </c>
       <c r="L22" t="s">
-        <v>922</v>
+        <v>990</v>
       </c>
       <c r="M22" t="s">
-        <v>997</v>
+        <v>1067</v>
       </c>
       <c r="N22" t="s">
-        <v>1063</v>
+        <v>1136</v>
       </c>
       <c r="O22" t="s">
-        <v>1126</v>
+        <v>1201</v>
       </c>
       <c r="P22" t="s">
-        <v>1185</v>
+        <v>1262</v>
       </c>
       <c r="Q22" t="s">
-        <v>1242</v>
+        <v>1321</v>
       </c>
       <c r="R22" t="s">
-        <v>1289</v>
+        <v>1370</v>
       </c>
       <c r="S22" t="s">
-        <v>1329</v>
+        <v>1412</v>
       </c>
       <c r="T22" t="s">
-        <v>1361</v>
+        <v>1446</v>
       </c>
       <c r="U22" t="s">
-        <v>1390</v>
+        <v>1477</v>
       </c>
       <c r="V22" t="s">
-        <v>1419</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -6552,49 +6727,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F23" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="G23" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
       <c r="H23" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="I23" t="s">
-        <v>675</v>
+        <v>731</v>
       </c>
       <c r="J23" t="s">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="K23" t="s">
-        <v>843</v>
+        <v>907</v>
       </c>
       <c r="L23" t="s">
-        <v>923</v>
+        <v>991</v>
       </c>
       <c r="M23" t="s">
-        <v>998</v>
+        <v>1068</v>
       </c>
       <c r="N23" t="s">
-        <v>1064</v>
+        <v>1137</v>
       </c>
       <c r="O23" t="s">
-        <v>1127</v>
+        <v>1202</v>
       </c>
       <c r="P23" t="s">
-        <v>1186</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -6602,19 +6777,94 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="E24" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F24" t="s">
-        <v>399</v>
+        <v>431</v>
+      </c>
+      <c r="G24" t="s">
+        <v>536</v>
+      </c>
+      <c r="H24" t="s">
+        <v>637</v>
+      </c>
+      <c r="I24" t="s">
+        <v>732</v>
+      </c>
+      <c r="J24" t="s">
+        <v>821</v>
+      </c>
+      <c r="K24" t="s">
+        <v>908</v>
+      </c>
+      <c r="L24" t="s">
+        <v>992</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1264</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1322</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1371</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1413</v>
+      </c>
+      <c r="T24" t="s">
+        <v>1447</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1478</v>
+      </c>
+      <c r="V24" t="s">
+        <v>1508</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1532</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>1595</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -6622,94 +6872,82 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="E25" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="G25" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="H25" t="s">
-        <v>586</v>
+        <v>638</v>
       </c>
       <c r="I25" t="s">
-        <v>676</v>
+        <v>733</v>
       </c>
       <c r="J25" t="s">
-        <v>761</v>
+        <v>822</v>
       </c>
       <c r="K25" t="s">
-        <v>844</v>
+        <v>909</v>
       </c>
       <c r="L25" t="s">
-        <v>924</v>
+        <v>993</v>
       </c>
       <c r="M25" t="s">
-        <v>999</v>
+        <v>1070</v>
       </c>
       <c r="N25" t="s">
-        <v>1065</v>
+        <v>1139</v>
       </c>
       <c r="O25" t="s">
-        <v>1128</v>
+        <v>1204</v>
       </c>
       <c r="P25" t="s">
-        <v>1187</v>
+        <v>1265</v>
       </c>
       <c r="Q25" t="s">
-        <v>1243</v>
+        <v>1323</v>
       </c>
       <c r="R25" t="s">
-        <v>1290</v>
+        <v>1372</v>
       </c>
       <c r="S25" t="s">
-        <v>1330</v>
+        <v>1414</v>
       </c>
       <c r="T25" t="s">
-        <v>1362</v>
+        <v>1448</v>
       </c>
       <c r="U25" t="s">
-        <v>1391</v>
+        <v>1479</v>
       </c>
       <c r="V25" t="s">
-        <v>1420</v>
+        <v>1509</v>
       </c>
       <c r="W25" t="s">
-        <v>1443</v>
+        <v>1533</v>
       </c>
       <c r="X25" t="s">
-        <v>1464</v>
+        <v>1555</v>
       </c>
       <c r="Y25" t="s">
-        <v>1485</v>
+        <v>1577</v>
       </c>
       <c r="Z25" t="s">
-        <v>1504</v>
+        <v>1596</v>
       </c>
       <c r="AA25" t="s">
-        <v>1517</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>1549</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -6717,82 +6955,76 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="E26" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F26" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="G26" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="H26" t="s">
-        <v>587</v>
+        <v>639</v>
       </c>
       <c r="I26" t="s">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="J26" t="s">
-        <v>762</v>
+        <v>823</v>
       </c>
       <c r="K26" t="s">
-        <v>845</v>
+        <v>910</v>
       </c>
       <c r="L26" t="s">
-        <v>925</v>
+        <v>994</v>
       </c>
       <c r="M26" t="s">
-        <v>1000</v>
+        <v>1071</v>
       </c>
       <c r="N26" t="s">
-        <v>1066</v>
+        <v>1140</v>
       </c>
       <c r="O26" t="s">
-        <v>1129</v>
+        <v>1205</v>
       </c>
       <c r="P26" t="s">
-        <v>1188</v>
+        <v>1266</v>
       </c>
       <c r="Q26" t="s">
-        <v>1244</v>
+        <v>1324</v>
       </c>
       <c r="R26" t="s">
-        <v>1291</v>
+        <v>1373</v>
       </c>
       <c r="S26" t="s">
-        <v>1331</v>
+        <v>1415</v>
       </c>
       <c r="T26" t="s">
-        <v>1363</v>
+        <v>1449</v>
       </c>
       <c r="U26" t="s">
-        <v>1392</v>
+        <v>1480</v>
       </c>
       <c r="V26" t="s">
-        <v>1421</v>
+        <v>1510</v>
       </c>
       <c r="W26" t="s">
-        <v>1444</v>
+        <v>1534</v>
       </c>
       <c r="X26" t="s">
-        <v>1465</v>
+        <v>1556</v>
       </c>
       <c r="Y26" t="s">
-        <v>1486</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>1518</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -6800,76 +7032,64 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="E27" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F27" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="G27" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="H27" t="s">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="I27" t="s">
-        <v>678</v>
+        <v>735</v>
       </c>
       <c r="J27" t="s">
-        <v>763</v>
+        <v>824</v>
       </c>
       <c r="K27" t="s">
-        <v>846</v>
+        <v>911</v>
       </c>
       <c r="L27" t="s">
-        <v>926</v>
+        <v>995</v>
       </c>
       <c r="M27" t="s">
-        <v>1001</v>
+        <v>1072</v>
       </c>
       <c r="N27" t="s">
-        <v>1067</v>
+        <v>1141</v>
       </c>
       <c r="O27" t="s">
-        <v>1130</v>
+        <v>1206</v>
       </c>
       <c r="P27" t="s">
-        <v>1189</v>
+        <v>1267</v>
       </c>
       <c r="Q27" t="s">
-        <v>1245</v>
+        <v>1325</v>
       </c>
       <c r="R27" t="s">
-        <v>1292</v>
+        <v>1374</v>
       </c>
       <c r="S27" t="s">
-        <v>1332</v>
+        <v>1416</v>
       </c>
       <c r="T27" t="s">
-        <v>1364</v>
+        <v>1450</v>
       </c>
       <c r="U27" t="s">
-        <v>1393</v>
-      </c>
-      <c r="V27" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W27" t="s">
-        <v>1445</v>
-      </c>
-      <c r="X27" t="s">
-        <v>1466</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -6877,64 +7097,43 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D28" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F28" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="G28" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="H28" t="s">
-        <v>589</v>
+        <v>641</v>
       </c>
       <c r="I28" t="s">
-        <v>679</v>
+        <v>736</v>
       </c>
       <c r="J28" t="s">
-        <v>764</v>
+        <v>825</v>
       </c>
       <c r="K28" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
       <c r="L28" t="s">
-        <v>927</v>
+        <v>996</v>
       </c>
       <c r="M28" t="s">
-        <v>1002</v>
+        <v>1073</v>
       </c>
       <c r="N28" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1131</v>
-      </c>
-      <c r="P28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>1246</v>
-      </c>
-      <c r="R28" t="s">
-        <v>1293</v>
-      </c>
-      <c r="S28" t="s">
-        <v>1333</v>
-      </c>
-      <c r="T28" t="s">
-        <v>1365</v>
-      </c>
-      <c r="U28" t="s">
-        <v>1394</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -6942,43 +7141,73 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="E29" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F29" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="G29" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="H29" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
       <c r="I29" t="s">
-        <v>680</v>
+        <v>737</v>
       </c>
       <c r="J29" t="s">
-        <v>765</v>
+        <v>826</v>
       </c>
       <c r="K29" t="s">
-        <v>848</v>
+        <v>913</v>
       </c>
       <c r="L29" t="s">
-        <v>928</v>
+        <v>997</v>
       </c>
       <c r="M29" t="s">
-        <v>1003</v>
+        <v>1074</v>
       </c>
       <c r="N29" t="s">
-        <v>1069</v>
+        <v>1143</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="S29" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T29" t="s">
+        <v>1451</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1482</v>
+      </c>
+      <c r="V29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1535</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -6986,73 +7215,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F30" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="G30" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="H30" t="s">
-        <v>591</v>
+        <v>643</v>
       </c>
       <c r="I30" t="s">
-        <v>681</v>
+        <v>738</v>
       </c>
       <c r="J30" t="s">
-        <v>766</v>
+        <v>827</v>
       </c>
       <c r="K30" t="s">
-        <v>849</v>
+        <v>914</v>
       </c>
       <c r="L30" t="s">
-        <v>929</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1070</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1132</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1191</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>1247</v>
-      </c>
-      <c r="R30" t="s">
-        <v>1294</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1334</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1366</v>
-      </c>
-      <c r="U30" t="s">
-        <v>1395</v>
-      </c>
-      <c r="V30" t="s">
-        <v>1423</v>
-      </c>
-      <c r="W30" t="s">
-        <v>1446</v>
-      </c>
-      <c r="X30" t="s">
-        <v>1467</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -7060,37 +7253,49 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E31" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F31" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="G31" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="H31" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="I31" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="J31" t="s">
-        <v>767</v>
+        <v>828</v>
       </c>
       <c r="K31" t="s">
-        <v>850</v>
+        <v>915</v>
       </c>
       <c r="L31" t="s">
-        <v>930</v>
+        <v>999</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1208</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -7098,49 +7303,22 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="F32" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="G32" t="s">
-        <v>501</v>
-      </c>
-      <c r="H32" t="s">
-        <v>593</v>
-      </c>
-      <c r="I32" t="s">
-        <v>683</v>
-      </c>
-      <c r="J32" t="s">
-        <v>768</v>
-      </c>
-      <c r="K32" t="s">
-        <v>851</v>
-      </c>
-      <c r="L32" t="s">
-        <v>931</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1071</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1133</v>
-      </c>
-      <c r="P32" t="s">
-        <v>1192</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -7148,22 +7326,58 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="E33" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="F33" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="G33" t="s">
-        <v>502</v>
+        <v>545</v>
+      </c>
+      <c r="H33" t="s">
+        <v>645</v>
+      </c>
+      <c r="I33" t="s">
+        <v>740</v>
+      </c>
+      <c r="J33" t="s">
+        <v>829</v>
+      </c>
+      <c r="K33" t="s">
+        <v>916</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R33" t="s">
+        <v>1376</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -7171,58 +7385,34 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D34" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F34" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="G34" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="H34" t="s">
-        <v>594</v>
+        <v>646</v>
       </c>
       <c r="I34" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="J34" t="s">
-        <v>769</v>
+        <v>830</v>
       </c>
       <c r="K34" t="s">
-        <v>852</v>
-      </c>
-      <c r="L34" t="s">
-        <v>932</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1072</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P34" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>1248</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1295</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1335</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
@@ -7230,34 +7420,34 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D35" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="F35" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="G35" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="H35" t="s">
-        <v>595</v>
+        <v>647</v>
       </c>
       <c r="I35" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="J35" t="s">
-        <v>770</v>
+        <v>831</v>
       </c>
       <c r="K35" t="s">
-        <v>853</v>
+        <v>918</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
@@ -7265,34 +7455,82 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D36" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="F36" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="G36" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="H36" t="s">
-        <v>596</v>
+        <v>648</v>
       </c>
       <c r="I36" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="J36" t="s">
-        <v>771</v>
+        <v>832</v>
       </c>
       <c r="K36" t="s">
-        <v>854</v>
+        <v>919</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1210</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1271</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S36" t="s">
+        <v>1419</v>
+      </c>
+      <c r="T36" t="s">
+        <v>1452</v>
+      </c>
+      <c r="U36" t="s">
+        <v>1483</v>
+      </c>
+      <c r="V36" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W36" t="s">
+        <v>1536</v>
+      </c>
+      <c r="X36" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
@@ -7300,82 +7538,52 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="F37" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="G37" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="H37" t="s">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="I37" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
       <c r="J37" t="s">
-        <v>772</v>
+        <v>833</v>
       </c>
       <c r="K37" t="s">
-        <v>855</v>
+        <v>920</v>
       </c>
       <c r="L37" t="s">
-        <v>933</v>
+        <v>1002</v>
       </c>
       <c r="M37" t="s">
-        <v>1007</v>
+        <v>1078</v>
       </c>
       <c r="N37" t="s">
-        <v>1073</v>
+        <v>1147</v>
       </c>
       <c r="O37" t="s">
-        <v>1135</v>
+        <v>1211</v>
       </c>
       <c r="P37" t="s">
-        <v>1194</v>
+        <v>1272</v>
       </c>
       <c r="Q37" t="s">
-        <v>1249</v>
-      </c>
-      <c r="R37" t="s">
-        <v>1296</v>
-      </c>
-      <c r="S37" t="s">
-        <v>1336</v>
-      </c>
-      <c r="T37" t="s">
-        <v>1367</v>
-      </c>
-      <c r="U37" t="s">
-        <v>1396</v>
-      </c>
-      <c r="V37" t="s">
-        <v>1424</v>
-      </c>
-      <c r="W37" t="s">
-        <v>1447</v>
-      </c>
-      <c r="X37" t="s">
-        <v>1468</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>1488</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>1506</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>1519</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -7383,52 +7591,76 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D38" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E38" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="F38" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="G38" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="H38" t="s">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="I38" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="J38" t="s">
-        <v>773</v>
+        <v>834</v>
       </c>
       <c r="K38" t="s">
-        <v>856</v>
+        <v>921</v>
       </c>
       <c r="L38" t="s">
-        <v>934</v>
+        <v>1003</v>
       </c>
       <c r="M38" t="s">
-        <v>1008</v>
+        <v>1079</v>
       </c>
       <c r="N38" t="s">
-        <v>1074</v>
+        <v>1148</v>
       </c>
       <c r="O38" t="s">
-        <v>1136</v>
+        <v>1212</v>
       </c>
       <c r="P38" t="s">
-        <v>1195</v>
+        <v>1273</v>
       </c>
       <c r="Q38" t="s">
-        <v>1250</v>
+        <v>1330</v>
+      </c>
+      <c r="R38" t="s">
+        <v>1378</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1420</v>
+      </c>
+      <c r="T38" t="s">
+        <v>1453</v>
+      </c>
+      <c r="U38" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V38" t="s">
+        <v>1513</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1537</v>
+      </c>
+      <c r="X38" t="s">
+        <v>1559</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -7436,76 +7668,82 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="E39" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="F39" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="G39" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="H39" t="s">
-        <v>599</v>
+        <v>651</v>
       </c>
       <c r="I39" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="J39" t="s">
-        <v>774</v>
+        <v>835</v>
       </c>
       <c r="K39" t="s">
-        <v>857</v>
+        <v>922</v>
       </c>
       <c r="L39" t="s">
-        <v>935</v>
+        <v>1004</v>
       </c>
       <c r="M39" t="s">
-        <v>1009</v>
+        <v>1080</v>
       </c>
       <c r="N39" t="s">
-        <v>1075</v>
+        <v>1149</v>
       </c>
       <c r="O39" t="s">
-        <v>1137</v>
+        <v>1213</v>
       </c>
       <c r="P39" t="s">
-        <v>1196</v>
+        <v>1274</v>
       </c>
       <c r="Q39" t="s">
-        <v>1251</v>
+        <v>1331</v>
       </c>
       <c r="R39" t="s">
-        <v>1297</v>
+        <v>1379</v>
       </c>
       <c r="S39" t="s">
-        <v>1337</v>
+        <v>1421</v>
       </c>
       <c r="T39" t="s">
-        <v>1368</v>
+        <v>1454</v>
       </c>
       <c r="U39" t="s">
-        <v>1397</v>
+        <v>1485</v>
       </c>
       <c r="V39" t="s">
-        <v>1425</v>
+        <v>1514</v>
       </c>
       <c r="W39" t="s">
-        <v>1448</v>
+        <v>1538</v>
       </c>
       <c r="X39" t="s">
-        <v>1469</v>
+        <v>1560</v>
       </c>
       <c r="Y39" t="s">
-        <v>1489</v>
+        <v>1581</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>1598</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -7513,82 +7751,49 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D40" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="F40" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="G40" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="H40" t="s">
-        <v>600</v>
+        <v>652</v>
       </c>
       <c r="I40" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="J40" t="s">
-        <v>775</v>
+        <v>836</v>
       </c>
       <c r="K40" t="s">
-        <v>858</v>
+        <v>923</v>
       </c>
       <c r="L40" t="s">
-        <v>936</v>
+        <v>1005</v>
       </c>
       <c r="M40" t="s">
-        <v>1010</v>
+        <v>1081</v>
       </c>
       <c r="N40" t="s">
-        <v>1076</v>
+        <v>1150</v>
       </c>
       <c r="O40" t="s">
-        <v>1138</v>
+        <v>1214</v>
       </c>
       <c r="P40" t="s">
-        <v>1197</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>1252</v>
-      </c>
-      <c r="R40" t="s">
-        <v>1298</v>
-      </c>
-      <c r="S40" t="s">
-        <v>1338</v>
-      </c>
-      <c r="T40" t="s">
-        <v>1369</v>
-      </c>
-      <c r="U40" t="s">
-        <v>1398</v>
-      </c>
-      <c r="V40" t="s">
-        <v>1426</v>
-      </c>
-      <c r="W40" t="s">
-        <v>1449</v>
-      </c>
-      <c r="X40" t="s">
-        <v>1470</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>1490</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>1507</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>1520</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
@@ -7596,49 +7801,55 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="E41" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="F41" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="G41" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="H41" t="s">
-        <v>601</v>
+        <v>653</v>
       </c>
       <c r="I41" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="J41" t="s">
-        <v>776</v>
+        <v>837</v>
       </c>
       <c r="K41" t="s">
-        <v>859</v>
+        <v>924</v>
       </c>
       <c r="L41" t="s">
-        <v>937</v>
+        <v>1006</v>
       </c>
       <c r="M41" t="s">
-        <v>1011</v>
+        <v>1082</v>
       </c>
       <c r="N41" t="s">
-        <v>1077</v>
+        <v>1151</v>
       </c>
       <c r="O41" t="s">
-        <v>1139</v>
+        <v>1215</v>
       </c>
       <c r="P41" t="s">
-        <v>1198</v>
+        <v>1276</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -7646,55 +7857,91 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D42" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E42" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="F42" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="G42" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="H42" t="s">
-        <v>602</v>
+        <v>654</v>
       </c>
       <c r="I42" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="J42" t="s">
-        <v>777</v>
+        <v>838</v>
       </c>
       <c r="K42" t="s">
-        <v>860</v>
+        <v>925</v>
       </c>
       <c r="L42" t="s">
-        <v>938</v>
+        <v>1007</v>
       </c>
       <c r="M42" t="s">
-        <v>1012</v>
+        <v>1083</v>
       </c>
       <c r="N42" t="s">
-        <v>1078</v>
+        <v>1152</v>
       </c>
       <c r="O42" t="s">
-        <v>1140</v>
+        <v>1216</v>
       </c>
       <c r="P42" t="s">
-        <v>1199</v>
+        <v>1277</v>
       </c>
       <c r="Q42" t="s">
-        <v>1253</v>
+        <v>1333</v>
       </c>
       <c r="R42" t="s">
-        <v>1299</v>
+        <v>1381</v>
+      </c>
+      <c r="S42" t="s">
+        <v>1422</v>
+      </c>
+      <c r="T42" t="s">
+        <v>1455</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V42" t="s">
+        <v>1515</v>
+      </c>
+      <c r="W42" t="s">
+        <v>1539</v>
+      </c>
+      <c r="X42" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
@@ -7702,91 +7949,67 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D43" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="E43" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="F43" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="G43" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="H43" t="s">
-        <v>603</v>
+        <v>655</v>
       </c>
       <c r="I43" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="J43" t="s">
-        <v>778</v>
+        <v>839</v>
       </c>
       <c r="K43" t="s">
-        <v>861</v>
+        <v>926</v>
       </c>
       <c r="L43" t="s">
-        <v>939</v>
+        <v>1008</v>
       </c>
       <c r="M43" t="s">
-        <v>1013</v>
+        <v>1084</v>
       </c>
       <c r="N43" t="s">
-        <v>1079</v>
+        <v>1153</v>
       </c>
       <c r="O43" t="s">
-        <v>1141</v>
+        <v>1217</v>
       </c>
       <c r="P43" t="s">
-        <v>1200</v>
+        <v>1278</v>
       </c>
       <c r="Q43" t="s">
-        <v>1254</v>
+        <v>1334</v>
       </c>
       <c r="R43" t="s">
-        <v>1300</v>
+        <v>1382</v>
       </c>
       <c r="S43" t="s">
-        <v>1339</v>
+        <v>1423</v>
       </c>
       <c r="T43" t="s">
-        <v>1370</v>
+        <v>1456</v>
       </c>
       <c r="U43" t="s">
-        <v>1399</v>
+        <v>1487</v>
       </c>
       <c r="V43" t="s">
-        <v>1427</v>
-      </c>
-      <c r="W43" t="s">
-        <v>1450</v>
-      </c>
-      <c r="X43" t="s">
-        <v>1471</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>1491</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>1508</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>1531</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>1546</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -7794,67 +8017,28 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="D44" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E44" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="G44" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="H44" t="s">
-        <v>604</v>
+        <v>656</v>
       </c>
       <c r="I44" t="s">
-        <v>694</v>
-      </c>
-      <c r="J44" t="s">
-        <v>779</v>
-      </c>
-      <c r="K44" t="s">
-        <v>862</v>
-      </c>
-      <c r="L44" t="s">
-        <v>940</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N44" t="s">
-        <v>1080</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1142</v>
-      </c>
-      <c r="P44" t="s">
-        <v>1201</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>1255</v>
-      </c>
-      <c r="R44" t="s">
-        <v>1301</v>
-      </c>
-      <c r="S44" t="s">
-        <v>1340</v>
-      </c>
-      <c r="T44" t="s">
-        <v>1371</v>
-      </c>
-      <c r="U44" t="s">
-        <v>1400</v>
-      </c>
-      <c r="V44" t="s">
-        <v>1428</v>
+        <v>751</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
@@ -7862,28 +8046,97 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D45" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="E45" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="G45" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="H45" t="s">
-        <v>605</v>
+        <v>657</v>
       </c>
       <c r="I45" t="s">
-        <v>695</v>
+        <v>752</v>
+      </c>
+      <c r="J45" t="s">
+        <v>840</v>
+      </c>
+      <c r="K45" t="s">
+        <v>927</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P45" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1335</v>
+      </c>
+      <c r="R45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1424</v>
+      </c>
+      <c r="T45" t="s">
+        <v>1457</v>
+      </c>
+      <c r="U45" t="s">
+        <v>1488</v>
+      </c>
+      <c r="V45" t="s">
+        <v>1517</v>
+      </c>
+      <c r="W45" t="s">
+        <v>1540</v>
+      </c>
+      <c r="X45" t="s">
+        <v>1562</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>1583</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1600</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
@@ -7891,97 +8144,55 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D46" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="E46" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="F46" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="G46" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="H46" t="s">
-        <v>606</v>
+        <v>658</v>
       </c>
       <c r="I46" t="s">
-        <v>696</v>
+        <v>753</v>
       </c>
       <c r="J46" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="K46" t="s">
-        <v>863</v>
+        <v>928</v>
       </c>
       <c r="L46" t="s">
-        <v>941</v>
+        <v>1010</v>
       </c>
       <c r="M46" t="s">
-        <v>1015</v>
+        <v>1086</v>
       </c>
       <c r="N46" t="s">
-        <v>1081</v>
+        <v>1155</v>
       </c>
       <c r="O46" t="s">
-        <v>1143</v>
+        <v>1219</v>
       </c>
       <c r="P46" t="s">
-        <v>1202</v>
+        <v>1280</v>
       </c>
       <c r="Q46" t="s">
-        <v>1256</v>
+        <v>1336</v>
       </c>
       <c r="R46" t="s">
-        <v>1302</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1341</v>
-      </c>
-      <c r="T46" t="s">
-        <v>1372</v>
-      </c>
-      <c r="U46" t="s">
-        <v>1401</v>
-      </c>
-      <c r="V46" t="s">
-        <v>1429</v>
-      </c>
-      <c r="W46" t="s">
-        <v>1451</v>
-      </c>
-      <c r="X46" t="s">
-        <v>1472</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>1492</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>1509</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>1547</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>1550</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>1552</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
@@ -7989,55 +8200,49 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D47" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F47" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="G47" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="H47" t="s">
-        <v>607</v>
+        <v>659</v>
       </c>
       <c r="I47" t="s">
-        <v>697</v>
+        <v>754</v>
       </c>
       <c r="J47" t="s">
-        <v>781</v>
+        <v>842</v>
       </c>
       <c r="K47" t="s">
-        <v>864</v>
+        <v>929</v>
       </c>
       <c r="L47" t="s">
-        <v>942</v>
+        <v>1011</v>
       </c>
       <c r="M47" t="s">
-        <v>1016</v>
+        <v>1087</v>
       </c>
       <c r="N47" t="s">
-        <v>1082</v>
+        <v>1156</v>
       </c>
       <c r="O47" t="s">
-        <v>1144</v>
+        <v>1220</v>
       </c>
       <c r="P47" t="s">
-        <v>1203</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>1257</v>
-      </c>
-      <c r="R47" t="s">
-        <v>1303</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
@@ -8045,49 +8250,49 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E48" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="F48" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="G48" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="H48" t="s">
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="I48" t="s">
-        <v>698</v>
+        <v>755</v>
       </c>
       <c r="J48" t="s">
-        <v>782</v>
+        <v>843</v>
       </c>
       <c r="K48" t="s">
-        <v>865</v>
+        <v>930</v>
       </c>
       <c r="L48" t="s">
-        <v>943</v>
+        <v>1012</v>
       </c>
       <c r="M48" t="s">
-        <v>1017</v>
+        <v>1088</v>
       </c>
       <c r="N48" t="s">
-        <v>1083</v>
+        <v>1157</v>
       </c>
       <c r="O48" t="s">
-        <v>1145</v>
+        <v>1221</v>
       </c>
       <c r="P48" t="s">
-        <v>1204</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -8095,49 +8300,49 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D49" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="E49" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F49" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="G49" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="H49" t="s">
-        <v>609</v>
+        <v>661</v>
       </c>
       <c r="I49" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
       <c r="J49" t="s">
-        <v>783</v>
+        <v>844</v>
       </c>
       <c r="K49" t="s">
-        <v>866</v>
+        <v>931</v>
       </c>
       <c r="L49" t="s">
-        <v>944</v>
+        <v>1013</v>
       </c>
       <c r="M49" t="s">
-        <v>1018</v>
+        <v>1089</v>
       </c>
       <c r="N49" t="s">
-        <v>1084</v>
+        <v>1158</v>
       </c>
       <c r="O49" t="s">
-        <v>1146</v>
+        <v>1222</v>
       </c>
       <c r="P49" t="s">
-        <v>1205</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -8145,49 +8350,64 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="D50" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E50" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="G50" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="H50" t="s">
-        <v>610</v>
+        <v>662</v>
       </c>
       <c r="I50" t="s">
-        <v>700</v>
+        <v>757</v>
       </c>
       <c r="J50" t="s">
-        <v>784</v>
+        <v>845</v>
       </c>
       <c r="K50" t="s">
-        <v>867</v>
+        <v>932</v>
       </c>
       <c r="L50" t="s">
-        <v>945</v>
+        <v>1014</v>
       </c>
       <c r="M50" t="s">
-        <v>1019</v>
+        <v>1090</v>
       </c>
       <c r="N50" t="s">
-        <v>1085</v>
+        <v>1159</v>
       </c>
       <c r="O50" t="s">
-        <v>1147</v>
+        <v>1223</v>
       </c>
       <c r="P50" t="s">
-        <v>1206</v>
+        <v>1284</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R50" t="s">
+        <v>1385</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1425</v>
+      </c>
+      <c r="T50" t="s">
+        <v>1458</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -8195,64 +8415,37 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E51" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F51" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="H51" t="s">
-        <v>611</v>
+        <v>663</v>
       </c>
       <c r="I51" t="s">
-        <v>701</v>
+        <v>758</v>
       </c>
       <c r="J51" t="s">
-        <v>785</v>
+        <v>846</v>
       </c>
       <c r="K51" t="s">
-        <v>868</v>
+        <v>933</v>
       </c>
       <c r="L51" t="s">
-        <v>946</v>
-      </c>
-      <c r="M51" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N51" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O51" t="s">
-        <v>1148</v>
-      </c>
-      <c r="P51" t="s">
-        <v>1207</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>1258</v>
-      </c>
-      <c r="R51" t="s">
-        <v>1304</v>
-      </c>
-      <c r="S51" t="s">
-        <v>1342</v>
-      </c>
-      <c r="T51" t="s">
-        <v>1373</v>
-      </c>
-      <c r="U51" t="s">
-        <v>1402</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -8260,37 +8453,34 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="H52" t="s">
-        <v>612</v>
+        <v>664</v>
       </c>
       <c r="I52" t="s">
-        <v>702</v>
+        <v>759</v>
       </c>
       <c r="J52" t="s">
-        <v>786</v>
+        <v>847</v>
       </c>
       <c r="K52" t="s">
-        <v>869</v>
-      </c>
-      <c r="L52" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -8298,34 +8488,37 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="E53" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="G53" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="H53" t="s">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="I53" t="s">
-        <v>703</v>
+        <v>760</v>
       </c>
       <c r="J53" t="s">
-        <v>787</v>
+        <v>848</v>
       </c>
       <c r="K53" t="s">
-        <v>870</v>
+        <v>935</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -8333,37 +8526,55 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="F54" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="H54" t="s">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="I54" t="s">
-        <v>704</v>
+        <v>761</v>
       </c>
       <c r="J54" t="s">
-        <v>788</v>
+        <v>849</v>
       </c>
       <c r="K54" t="s">
-        <v>871</v>
+        <v>936</v>
       </c>
       <c r="L54" t="s">
-        <v>948</v>
+        <v>1017</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R54" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -8371,55 +8582,37 @@
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D55" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="G55" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="H55" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="I55" t="s">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="J55" t="s">
-        <v>789</v>
+        <v>850</v>
       </c>
       <c r="K55" t="s">
-        <v>872</v>
+        <v>937</v>
       </c>
       <c r="L55" t="s">
-        <v>949</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N55" t="s">
-        <v>1087</v>
-      </c>
-      <c r="O55" t="s">
-        <v>1149</v>
-      </c>
-      <c r="P55" t="s">
-        <v>1208</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>1259</v>
-      </c>
-      <c r="R55" t="s">
-        <v>1305</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -8427,37 +8620,37 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="E56" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F56" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="H56" t="s">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="I56" t="s">
-        <v>706</v>
+        <v>763</v>
       </c>
       <c r="J56" t="s">
-        <v>790</v>
+        <v>851</v>
       </c>
       <c r="K56" t="s">
-        <v>873</v>
+        <v>938</v>
       </c>
       <c r="L56" t="s">
-        <v>950</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -8465,37 +8658,34 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E57" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="G57" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="H57" t="s">
-        <v>617</v>
+        <v>669</v>
       </c>
       <c r="I57" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
       <c r="J57" t="s">
-        <v>791</v>
+        <v>852</v>
       </c>
       <c r="K57" t="s">
-        <v>874</v>
-      </c>
-      <c r="L57" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -8503,37 +8693,58 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="E58" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="G58" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="H58" t="s">
-        <v>618</v>
+        <v>670</v>
       </c>
       <c r="I58" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="J58" t="s">
-        <v>792</v>
+        <v>853</v>
       </c>
       <c r="K58" t="s">
-        <v>875</v>
+        <v>940</v>
       </c>
       <c r="L58" t="s">
-        <v>952</v>
+        <v>1020</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O58" t="s">
+        <v>1225</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1339</v>
+      </c>
+      <c r="R58" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S58" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -8541,58 +8752,43 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="D59" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F59" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="G59" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="H59" t="s">
-        <v>619</v>
+        <v>671</v>
       </c>
       <c r="I59" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="J59" t="s">
-        <v>793</v>
+        <v>854</v>
       </c>
       <c r="K59" t="s">
-        <v>876</v>
+        <v>941</v>
       </c>
       <c r="L59" t="s">
-        <v>953</v>
+        <v>1021</v>
       </c>
       <c r="M59" t="s">
-        <v>1022</v>
+        <v>1093</v>
       </c>
       <c r="N59" t="s">
-        <v>1088</v>
-      </c>
-      <c r="O59" t="s">
-        <v>1150</v>
-      </c>
-      <c r="P59" t="s">
-        <v>1209</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>1260</v>
-      </c>
-      <c r="R59" t="s">
-        <v>1306</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1343</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -8600,43 +8796,34 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F60" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="G60" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="H60" t="s">
-        <v>620</v>
+        <v>672</v>
       </c>
       <c r="I60" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
       <c r="J60" t="s">
-        <v>794</v>
+        <v>855</v>
       </c>
       <c r="K60" t="s">
-        <v>877</v>
-      </c>
-      <c r="L60" t="s">
-        <v>954</v>
-      </c>
-      <c r="M60" t="s">
-        <v>1023</v>
-      </c>
-      <c r="N60" t="s">
-        <v>1089</v>
+        <v>942</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -8644,34 +8831,49 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E61" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F61" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="G61" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="H61" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="I61" t="s">
-        <v>711</v>
+        <v>768</v>
       </c>
       <c r="J61" t="s">
-        <v>795</v>
+        <v>856</v>
       </c>
       <c r="K61" t="s">
-        <v>878</v>
+        <v>943</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O61" t="s">
+        <v>1226</v>
+      </c>
+      <c r="P61" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -8679,49 +8881,55 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="E62" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F62" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="G62" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="H62" t="s">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="I62" t="s">
-        <v>712</v>
+        <v>769</v>
       </c>
       <c r="J62" t="s">
-        <v>796</v>
+        <v>857</v>
       </c>
       <c r="K62" t="s">
-        <v>879</v>
+        <v>944</v>
       </c>
       <c r="L62" t="s">
-        <v>955</v>
+        <v>1023</v>
       </c>
       <c r="M62" t="s">
-        <v>1024</v>
+        <v>1095</v>
       </c>
       <c r="N62" t="s">
-        <v>1090</v>
+        <v>1164</v>
       </c>
       <c r="O62" t="s">
-        <v>1151</v>
+        <v>1227</v>
       </c>
       <c r="P62" t="s">
-        <v>1210</v>
+        <v>1288</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1340</v>
+      </c>
+      <c r="R62" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -8729,55 +8937,52 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="D63" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="E63" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="F63" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="G63" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="H63" t="s">
-        <v>623</v>
+        <v>675</v>
       </c>
       <c r="I63" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="J63" t="s">
-        <v>797</v>
+        <v>858</v>
       </c>
       <c r="K63" t="s">
-        <v>880</v>
+        <v>945</v>
       </c>
       <c r="L63" t="s">
-        <v>956</v>
+        <v>1024</v>
       </c>
       <c r="M63" t="s">
-        <v>1025</v>
+        <v>1096</v>
       </c>
       <c r="N63" t="s">
-        <v>1091</v>
+        <v>1165</v>
       </c>
       <c r="O63" t="s">
-        <v>1152</v>
+        <v>1228</v>
       </c>
       <c r="P63" t="s">
-        <v>1211</v>
+        <v>1289</v>
       </c>
       <c r="Q63" t="s">
-        <v>1261</v>
-      </c>
-      <c r="R63" t="s">
-        <v>1307</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -8785,52 +8990,52 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E64" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="F64" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="G64" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="H64" t="s">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="I64" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
       <c r="J64" t="s">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="K64" t="s">
-        <v>881</v>
+        <v>946</v>
       </c>
       <c r="L64" t="s">
-        <v>957</v>
+        <v>1025</v>
       </c>
       <c r="M64" t="s">
-        <v>1026</v>
+        <v>1097</v>
       </c>
       <c r="N64" t="s">
-        <v>1092</v>
+        <v>1166</v>
       </c>
       <c r="O64" t="s">
-        <v>1153</v>
+        <v>1229</v>
       </c>
       <c r="P64" t="s">
-        <v>1212</v>
+        <v>1290</v>
       </c>
       <c r="Q64" t="s">
-        <v>1262</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
@@ -8838,52 +9043,85 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F65" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="G65" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="H65" t="s">
-        <v>625</v>
+        <v>677</v>
       </c>
       <c r="I65" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
       <c r="J65" t="s">
-        <v>799</v>
+        <v>860</v>
       </c>
       <c r="K65" t="s">
-        <v>882</v>
+        <v>947</v>
       </c>
       <c r="L65" t="s">
-        <v>958</v>
+        <v>1026</v>
       </c>
       <c r="M65" t="s">
-        <v>1027</v>
+        <v>1098</v>
       </c>
       <c r="N65" t="s">
-        <v>1093</v>
+        <v>1167</v>
       </c>
       <c r="O65" t="s">
-        <v>1154</v>
+        <v>1230</v>
       </c>
       <c r="P65" t="s">
-        <v>1213</v>
+        <v>1291</v>
       </c>
       <c r="Q65" t="s">
-        <v>1263</v>
+        <v>1343</v>
+      </c>
+      <c r="R65" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S65" t="s">
+        <v>1427</v>
+      </c>
+      <c r="T65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="U65" t="s">
+        <v>1490</v>
+      </c>
+      <c r="V65" t="s">
+        <v>1518</v>
+      </c>
+      <c r="W65" t="s">
+        <v>1541</v>
+      </c>
+      <c r="X65" t="s">
+        <v>1563</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
@@ -8891,85 +9129,64 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="D66" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="E66" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="G66" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="H66" t="s">
-        <v>626</v>
+        <v>678</v>
       </c>
       <c r="I66" t="s">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="J66" t="s">
-        <v>800</v>
+        <v>861</v>
       </c>
       <c r="K66" t="s">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="L66" t="s">
-        <v>959</v>
+        <v>1027</v>
       </c>
       <c r="M66" t="s">
-        <v>1028</v>
+        <v>1099</v>
       </c>
       <c r="N66" t="s">
-        <v>1094</v>
+        <v>1168</v>
       </c>
       <c r="O66" t="s">
-        <v>1155</v>
+        <v>1231</v>
       </c>
       <c r="P66" t="s">
-        <v>1214</v>
+        <v>1292</v>
       </c>
       <c r="Q66" t="s">
-        <v>1264</v>
+        <v>1344</v>
       </c>
       <c r="R66" t="s">
-        <v>1308</v>
+        <v>1390</v>
       </c>
       <c r="S66" t="s">
-        <v>1344</v>
+        <v>1428</v>
       </c>
       <c r="T66" t="s">
-        <v>1374</v>
+        <v>1460</v>
       </c>
       <c r="U66" t="s">
-        <v>1403</v>
-      </c>
-      <c r="V66" t="s">
-        <v>1430</v>
-      </c>
-      <c r="W66" t="s">
-        <v>1452</v>
-      </c>
-      <c r="X66" t="s">
-        <v>1473</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>1493</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>1510</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>1533</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
@@ -8977,64 +9194,31 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E67" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F67" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="G67" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="H67" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="I67" t="s">
-        <v>717</v>
+        <v>774</v>
       </c>
       <c r="J67" t="s">
-        <v>801</v>
-      </c>
-      <c r="K67" t="s">
-        <v>884</v>
-      </c>
-      <c r="L67" t="s">
-        <v>960</v>
-      </c>
-      <c r="M67" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N67" t="s">
-        <v>1095</v>
-      </c>
-      <c r="O67" t="s">
-        <v>1156</v>
-      </c>
-      <c r="P67" t="s">
-        <v>1215</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>1265</v>
-      </c>
-      <c r="R67" t="s">
-        <v>1309</v>
-      </c>
-      <c r="S67" t="s">
-        <v>1345</v>
-      </c>
-      <c r="T67" t="s">
-        <v>1375</v>
-      </c>
-      <c r="U67" t="s">
-        <v>1404</v>
+        <v>862</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
@@ -9042,31 +9226,40 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="E68" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F68" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="G68" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="H68" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="I68" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
       <c r="J68" t="s">
-        <v>802</v>
+        <v>863</v>
+      </c>
+      <c r="K68" t="s">
+        <v>949</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
@@ -9074,40 +9267,37 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D69" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E69" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F69" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="G69" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="H69" t="s">
-        <v>629</v>
+        <v>681</v>
       </c>
       <c r="I69" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="J69" t="s">
-        <v>803</v>
+        <v>864</v>
       </c>
       <c r="K69" t="s">
-        <v>885</v>
+        <v>950</v>
       </c>
       <c r="L69" t="s">
-        <v>961</v>
-      </c>
-      <c r="M69" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
@@ -9115,37 +9305,49 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F70" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="G70" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="H70" t="s">
-        <v>630</v>
+        <v>682</v>
       </c>
       <c r="I70" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="J70" t="s">
-        <v>804</v>
+        <v>865</v>
       </c>
       <c r="K70" t="s">
-        <v>886</v>
+        <v>951</v>
       </c>
       <c r="L70" t="s">
-        <v>962</v>
+        <v>1030</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1232</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -9153,49 +9355,52 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E71" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="F71" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="G71" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="H71" t="s">
-        <v>631</v>
+        <v>683</v>
       </c>
       <c r="I71" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="J71" t="s">
-        <v>805</v>
+        <v>866</v>
       </c>
       <c r="K71" t="s">
-        <v>887</v>
+        <v>952</v>
       </c>
       <c r="L71" t="s">
-        <v>963</v>
+        <v>1031</v>
       </c>
       <c r="M71" t="s">
-        <v>1031</v>
+        <v>1102</v>
       </c>
       <c r="N71" t="s">
-        <v>1096</v>
+        <v>1170</v>
       </c>
       <c r="O71" t="s">
-        <v>1157</v>
+        <v>1233</v>
       </c>
       <c r="P71" t="s">
-        <v>1216</v>
+        <v>1294</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
@@ -9203,52 +9408,67 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D72" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E72" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F72" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="G72" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="H72" t="s">
-        <v>632</v>
+        <v>684</v>
       </c>
       <c r="I72" t="s">
-        <v>722</v>
+        <v>779</v>
       </c>
       <c r="J72" t="s">
-        <v>806</v>
+        <v>867</v>
       </c>
       <c r="K72" t="s">
-        <v>888</v>
+        <v>953</v>
       </c>
       <c r="L72" t="s">
-        <v>964</v>
+        <v>1032</v>
       </c>
       <c r="M72" t="s">
-        <v>1032</v>
+        <v>1103</v>
       </c>
       <c r="N72" t="s">
-        <v>1097</v>
+        <v>1171</v>
       </c>
       <c r="O72" t="s">
-        <v>1158</v>
+        <v>1234</v>
       </c>
       <c r="P72" t="s">
-        <v>1217</v>
+        <v>1295</v>
       </c>
       <c r="Q72" t="s">
-        <v>1266</v>
+        <v>1346</v>
+      </c>
+      <c r="R72" t="s">
+        <v>1391</v>
+      </c>
+      <c r="S72" t="s">
+        <v>1429</v>
+      </c>
+      <c r="T72" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U72" t="s">
+        <v>1492</v>
+      </c>
+      <c r="V72" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -9256,67 +9476,43 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D73" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="E73" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F73" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="G73" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="H73" t="s">
-        <v>633</v>
+        <v>685</v>
       </c>
       <c r="I73" t="s">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="J73" t="s">
-        <v>807</v>
+        <v>868</v>
       </c>
       <c r="K73" t="s">
-        <v>889</v>
+        <v>954</v>
       </c>
       <c r="L73" t="s">
-        <v>965</v>
+        <v>1033</v>
       </c>
       <c r="M73" t="s">
-        <v>1033</v>
+        <v>1104</v>
       </c>
       <c r="N73" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1159</v>
-      </c>
-      <c r="P73" t="s">
-        <v>1218</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>1267</v>
-      </c>
-      <c r="R73" t="s">
-        <v>1310</v>
-      </c>
-      <c r="S73" t="s">
-        <v>1346</v>
-      </c>
-      <c r="T73" t="s">
-        <v>1376</v>
-      </c>
-      <c r="U73" t="s">
-        <v>1405</v>
-      </c>
-      <c r="V73" t="s">
-        <v>1431</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
@@ -9324,43 +9520,37 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D74" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E74" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F74" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="G74" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="H74" t="s">
-        <v>634</v>
+        <v>686</v>
       </c>
       <c r="I74" t="s">
-        <v>724</v>
+        <v>781</v>
       </c>
       <c r="J74" t="s">
-        <v>808</v>
+        <v>869</v>
       </c>
       <c r="K74" t="s">
-        <v>890</v>
+        <v>955</v>
       </c>
       <c r="L74" t="s">
-        <v>966</v>
-      </c>
-      <c r="M74" t="s">
         <v>1034</v>
-      </c>
-      <c r="N74" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -9368,37 +9558,25 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="D75" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E75" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F75" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="G75" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="H75" t="s">
-        <v>635</v>
-      </c>
-      <c r="I75" t="s">
-        <v>725</v>
-      </c>
-      <c r="J75" t="s">
-        <v>809</v>
-      </c>
-      <c r="K75" t="s">
-        <v>891</v>
-      </c>
-      <c r="L75" t="s">
-        <v>967</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
@@ -9406,25 +9584,40 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="D76" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="E76" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F76" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="G76" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="H76" t="s">
-        <v>636</v>
+        <v>688</v>
+      </c>
+      <c r="I76" t="s">
+        <v>782</v>
+      </c>
+      <c r="J76" t="s">
+        <v>870</v>
+      </c>
+      <c r="K76" t="s">
+        <v>956</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
@@ -9432,40 +9625,46 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E77" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F77" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="G77" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="H77" t="s">
-        <v>637</v>
+        <v>689</v>
       </c>
       <c r="I77" t="s">
-        <v>726</v>
+        <v>783</v>
       </c>
       <c r="J77" t="s">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="K77" t="s">
-        <v>892</v>
+        <v>957</v>
       </c>
       <c r="L77" t="s">
-        <v>968</v>
+        <v>1036</v>
       </c>
       <c r="M77" t="s">
-        <v>1035</v>
+        <v>1106</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
@@ -9473,46 +9672,55 @@
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D78" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="E78" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="F78" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="G78" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="H78" t="s">
-        <v>638</v>
+        <v>690</v>
       </c>
       <c r="I78" t="s">
-        <v>727</v>
+        <v>784</v>
       </c>
       <c r="J78" t="s">
-        <v>811</v>
+        <v>872</v>
       </c>
       <c r="K78" t="s">
-        <v>893</v>
+        <v>958</v>
       </c>
       <c r="L78" t="s">
-        <v>969</v>
+        <v>1037</v>
       </c>
       <c r="M78" t="s">
-        <v>1036</v>
+        <v>1107</v>
       </c>
       <c r="N78" t="s">
-        <v>1100</v>
+        <v>1174</v>
       </c>
       <c r="O78" t="s">
-        <v>1160</v>
+        <v>1236</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1347</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -9520,55 +9728,25 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D79" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F79" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="G79" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="H79" t="s">
-        <v>639</v>
-      </c>
-      <c r="I79" t="s">
-        <v>728</v>
-      </c>
-      <c r="J79" t="s">
-        <v>812</v>
-      </c>
-      <c r="K79" t="s">
-        <v>894</v>
-      </c>
-      <c r="L79" t="s">
-        <v>970</v>
-      </c>
-      <c r="M79" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N79" t="s">
-        <v>1101</v>
-      </c>
-      <c r="O79" t="s">
-        <v>1161</v>
-      </c>
-      <c r="P79" t="s">
-        <v>1219</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>1268</v>
-      </c>
-      <c r="R79" t="s">
-        <v>1311</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
@@ -9576,25 +9754,40 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D80" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="E80" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F80" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="G80" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="H80" t="s">
-        <v>640</v>
+        <v>692</v>
+      </c>
+      <c r="I80" t="s">
+        <v>785</v>
+      </c>
+      <c r="J80" t="s">
+        <v>873</v>
+      </c>
+      <c r="K80" t="s">
+        <v>959</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -9602,40 +9795,22 @@
         <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="E81" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="F81" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="G81" t="s">
-        <v>550</v>
-      </c>
-      <c r="H81" t="s">
-        <v>641</v>
-      </c>
-      <c r="I81" t="s">
-        <v>729</v>
-      </c>
-      <c r="J81" t="s">
-        <v>813</v>
-      </c>
-      <c r="K81" t="s">
-        <v>895</v>
-      </c>
-      <c r="L81" t="s">
-        <v>971</v>
-      </c>
-      <c r="M81" t="s">
-        <v>1038</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -9643,22 +9818,19 @@
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E82" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F82" t="s">
-        <v>457</v>
-      </c>
-      <c r="G82" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -9666,19 +9838,58 @@
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C83" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="E83" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F83" t="s">
-        <v>458</v>
+        <v>490</v>
+      </c>
+      <c r="G83" t="s">
+        <v>594</v>
+      </c>
+      <c r="H83" t="s">
+        <v>693</v>
+      </c>
+      <c r="I83" t="s">
+        <v>786</v>
+      </c>
+      <c r="J83" t="s">
+        <v>874</v>
+      </c>
+      <c r="K83" t="s">
+        <v>960</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1393</v>
+      </c>
+      <c r="S83" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -9686,858 +9897,1067 @@
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E84" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F84" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="G84" t="s">
-        <v>552</v>
-      </c>
-      <c r="H84" t="s">
-        <v>642</v>
-      </c>
-      <c r="I84" t="s">
-        <v>730</v>
-      </c>
-      <c r="J84" t="s">
-        <v>814</v>
-      </c>
-      <c r="K84" t="s">
-        <v>896</v>
-      </c>
-      <c r="L84" t="s">
-        <v>972</v>
-      </c>
-      <c r="M84" t="s">
-        <v>1039</v>
-      </c>
-      <c r="N84" t="s">
-        <v>1102</v>
-      </c>
-      <c r="O84" t="s">
-        <v>1162</v>
-      </c>
-      <c r="P84" t="s">
-        <v>1220</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>1269</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1312</v>
-      </c>
-      <c r="S84" t="s">
-        <v>1347</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1553</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" t="str">
-        <f>"0001585521"</f>
-        <v>0001585521</v>
-      </c>
-      <c r="D85" t="str">
-        <f>"7370"</f>
-        <v>7370</v>
-      </c>
-      <c r="E85" s="2" t="str">
-        <f>"0131"</f>
-        <v>0131</v>
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>326</v>
+      </c>
+      <c r="D85" t="s">
+        <v>382</v>
+      </c>
+      <c r="E85" t="s">
+        <v>387</v>
       </c>
       <c r="F85" t="s">
-        <v>1554</v>
+        <v>492</v>
+      </c>
+      <c r="G85" t="s">
+        <v>596</v>
       </c>
       <c r="H85" t="s">
-        <v>1555</v>
+        <v>694</v>
+      </c>
+      <c r="I85" t="s">
+        <v>787</v>
+      </c>
+      <c r="J85" t="s">
+        <v>875</v>
+      </c>
+      <c r="K85" t="s">
+        <v>961</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N85" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1349</v>
+      </c>
+      <c r="R85" t="s">
+        <v>1394</v>
+      </c>
+      <c r="S85" t="s">
+        <v>1431</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V85" t="s">
+        <v>1520</v>
+      </c>
+      <c r="W85" t="s">
+        <v>1542</v>
+      </c>
+      <c r="X85" t="s">
+        <v>1564</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D86" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F86" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="G86" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="H86" t="s">
-        <v>643</v>
+        <v>695</v>
       </c>
       <c r="I86" t="s">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="J86" t="s">
-        <v>815</v>
+        <v>876</v>
       </c>
       <c r="K86" t="s">
-        <v>897</v>
+        <v>962</v>
       </c>
       <c r="L86" t="s">
-        <v>973</v>
+        <v>1041</v>
       </c>
       <c r="M86" t="s">
-        <v>1040</v>
+        <v>1111</v>
       </c>
       <c r="N86" t="s">
-        <v>1103</v>
+        <v>1177</v>
       </c>
       <c r="O86" t="s">
-        <v>1163</v>
+        <v>1239</v>
       </c>
       <c r="P86" t="s">
-        <v>1221</v>
+        <v>1299</v>
       </c>
       <c r="Q86" t="s">
-        <v>1270</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1313</v>
-      </c>
-      <c r="S86" t="s">
-        <v>1348</v>
-      </c>
-      <c r="T86" t="s">
-        <v>1377</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1406</v>
-      </c>
-      <c r="V86" t="s">
-        <v>1432</v>
-      </c>
-      <c r="W86" t="s">
-        <v>1453</v>
-      </c>
-      <c r="X86" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>1494</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D87" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="E87" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F87" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="G87" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="H87" t="s">
-        <v>644</v>
+        <v>696</v>
       </c>
       <c r="I87" t="s">
-        <v>732</v>
+        <v>789</v>
       </c>
       <c r="J87" t="s">
-        <v>816</v>
+        <v>877</v>
       </c>
       <c r="K87" t="s">
-        <v>898</v>
+        <v>963</v>
       </c>
       <c r="L87" t="s">
-        <v>974</v>
+        <v>1042</v>
       </c>
       <c r="M87" t="s">
-        <v>1041</v>
+        <v>1112</v>
       </c>
       <c r="N87" t="s">
-        <v>1104</v>
+        <v>1178</v>
       </c>
       <c r="O87" t="s">
-        <v>1164</v>
+        <v>1240</v>
       </c>
       <c r="P87" t="s">
-        <v>1222</v>
+        <v>1300</v>
       </c>
       <c r="Q87" t="s">
-        <v>1271</v>
+        <v>1351</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D88" t="s">
-        <v>353</v>
-      </c>
-      <c r="E88" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="F88" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="G88" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="H88" t="s">
-        <v>645</v>
-      </c>
-      <c r="I88" t="s">
-        <v>733</v>
-      </c>
-      <c r="J88" t="s">
-        <v>817</v>
-      </c>
-      <c r="K88" t="s">
-        <v>899</v>
-      </c>
-      <c r="L88" t="s">
-        <v>975</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1042</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1105</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1165</v>
-      </c>
-      <c r="P88" t="s">
-        <v>1223</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>1272</v>
-      </c>
-      <c r="R88" t="s">
-        <v>1314</v>
+        <v>697</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>383</v>
+      </c>
+      <c r="E89" t="s">
+        <v>396</v>
       </c>
       <c r="F89" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="G89" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="H89" t="s">
-        <v>646</v>
+        <v>698</v>
+      </c>
+      <c r="I89" t="s">
+        <v>790</v>
+      </c>
+      <c r="J89" t="s">
+        <v>878</v>
+      </c>
+      <c r="K89" t="s">
+        <v>964</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1241</v>
+      </c>
+      <c r="P89" t="s">
+        <v>1301</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R89" t="s">
+        <v>1396</v>
+      </c>
+      <c r="S89" t="s">
+        <v>1432</v>
+      </c>
+      <c r="T89" t="s">
+        <v>1463</v>
+      </c>
+      <c r="U89" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
-      </c>
-      <c r="E90" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F90" t="s">
-        <v>464</v>
-      </c>
-      <c r="G90" t="s">
-        <v>557</v>
-      </c>
-      <c r="H90" t="s">
-        <v>647</v>
-      </c>
-      <c r="I90" t="s">
-        <v>734</v>
-      </c>
-      <c r="J90" t="s">
-        <v>818</v>
-      </c>
-      <c r="K90" t="s">
-        <v>900</v>
-      </c>
-      <c r="L90" t="s">
-        <v>976</v>
-      </c>
-      <c r="M90" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1106</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1166</v>
-      </c>
-      <c r="P90" t="s">
-        <v>1224</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>1273</v>
-      </c>
-      <c r="R90" t="s">
-        <v>1315</v>
-      </c>
-      <c r="S90" t="s">
-        <v>1349</v>
-      </c>
-      <c r="T90" t="s">
-        <v>1378</v>
-      </c>
-      <c r="U90" t="s">
-        <v>1407</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s">
-        <v>321</v>
+        <v>354</v>
+      </c>
+      <c r="E91" t="s">
+        <v>387</v>
       </c>
       <c r="F91" t="s">
-        <v>465</v>
+        <v>498</v>
+      </c>
+      <c r="G91" t="s">
+        <v>601</v>
+      </c>
+      <c r="H91" t="s">
+        <v>699</v>
+      </c>
+      <c r="I91" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="E92" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F92" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="G92" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="H92" t="s">
-        <v>648</v>
+        <v>700</v>
       </c>
       <c r="I92" t="s">
-        <v>735</v>
+        <v>792</v>
+      </c>
+      <c r="J92" t="s">
+        <v>879</v>
+      </c>
+      <c r="K92" t="s">
+        <v>965</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1242</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1353</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S92" t="s">
+        <v>1433</v>
+      </c>
+      <c r="T92" t="s">
+        <v>1464</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1495</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1521</v>
+      </c>
+      <c r="W92" t="s">
+        <v>1543</v>
+      </c>
+      <c r="X92" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>1586</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D93" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="E93" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F93" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="G93" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="H93" t="s">
-        <v>649</v>
+        <v>701</v>
       </c>
       <c r="I93" t="s">
-        <v>736</v>
+        <v>793</v>
       </c>
       <c r="J93" t="s">
-        <v>819</v>
+        <v>880</v>
       </c>
       <c r="K93" t="s">
-        <v>901</v>
+        <v>966</v>
       </c>
       <c r="L93" t="s">
-        <v>977</v>
+        <v>1045</v>
       </c>
       <c r="M93" t="s">
-        <v>1044</v>
+        <v>1115</v>
       </c>
       <c r="N93" t="s">
-        <v>1107</v>
+        <v>1181</v>
       </c>
       <c r="O93" t="s">
-        <v>1167</v>
+        <v>1243</v>
       </c>
       <c r="P93" t="s">
-        <v>1225</v>
+        <v>1303</v>
       </c>
       <c r="Q93" t="s">
-        <v>1274</v>
+        <v>1354</v>
       </c>
       <c r="R93" t="s">
-        <v>1316</v>
+        <v>1398</v>
       </c>
       <c r="S93" t="s">
-        <v>1350</v>
+        <v>1434</v>
       </c>
       <c r="T93" t="s">
-        <v>1379</v>
+        <v>1465</v>
       </c>
       <c r="U93" t="s">
-        <v>1408</v>
+        <v>1496</v>
       </c>
       <c r="V93" t="s">
-        <v>1433</v>
+        <v>1522</v>
       </c>
       <c r="W93" t="s">
-        <v>1454</v>
+        <v>1544</v>
       </c>
       <c r="X93" t="s">
-        <v>1475</v>
+        <v>1566</v>
       </c>
       <c r="Y93" t="s">
-        <v>1495</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>1511</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>1524</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="E94" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F94" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="G94" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="H94" t="s">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="I94" t="s">
-        <v>737</v>
+        <v>794</v>
       </c>
       <c r="J94" t="s">
-        <v>820</v>
+        <v>881</v>
       </c>
       <c r="K94" t="s">
-        <v>902</v>
+        <v>967</v>
       </c>
       <c r="L94" t="s">
-        <v>978</v>
+        <v>1046</v>
       </c>
       <c r="M94" t="s">
-        <v>1045</v>
+        <v>1116</v>
       </c>
       <c r="N94" t="s">
-        <v>1108</v>
+        <v>1182</v>
       </c>
       <c r="O94" t="s">
-        <v>1168</v>
+        <v>1244</v>
       </c>
       <c r="P94" t="s">
-        <v>1226</v>
+        <v>1304</v>
       </c>
       <c r="Q94" t="s">
-        <v>1275</v>
+        <v>1355</v>
       </c>
       <c r="R94" t="s">
-        <v>1317</v>
+        <v>1399</v>
       </c>
       <c r="S94" t="s">
-        <v>1351</v>
+        <v>1435</v>
       </c>
       <c r="T94" t="s">
-        <v>1380</v>
+        <v>1466</v>
       </c>
       <c r="U94" t="s">
-        <v>1409</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1434</v>
-      </c>
-      <c r="W94" t="s">
-        <v>1455</v>
-      </c>
-      <c r="X94" t="s">
-        <v>1476</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D95" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E95" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F95" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="G95" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="H95" t="s">
-        <v>651</v>
+        <v>703</v>
       </c>
       <c r="I95" t="s">
-        <v>738</v>
+        <v>795</v>
       </c>
       <c r="J95" t="s">
-        <v>821</v>
+        <v>882</v>
       </c>
       <c r="K95" t="s">
-        <v>903</v>
+        <v>968</v>
       </c>
       <c r="L95" t="s">
-        <v>979</v>
+        <v>1047</v>
       </c>
       <c r="M95" t="s">
-        <v>1046</v>
+        <v>1117</v>
       </c>
       <c r="N95" t="s">
-        <v>1109</v>
+        <v>1183</v>
       </c>
       <c r="O95" t="s">
-        <v>1169</v>
+        <v>1245</v>
       </c>
       <c r="P95" t="s">
-        <v>1227</v>
+        <v>1305</v>
       </c>
       <c r="Q95" t="s">
-        <v>1276</v>
+        <v>1356</v>
       </c>
       <c r="R95" t="s">
-        <v>1318</v>
-      </c>
-      <c r="S95" t="s">
-        <v>1352</v>
-      </c>
-      <c r="T95" t="s">
-        <v>1381</v>
-      </c>
-      <c r="U95" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="D96" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="E96" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F96" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="G96" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="H96" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="I96" t="s">
-        <v>739</v>
+        <v>796</v>
       </c>
       <c r="J96" t="s">
-        <v>822</v>
+        <v>883</v>
       </c>
       <c r="K96" t="s">
-        <v>904</v>
+        <v>969</v>
       </c>
       <c r="L96" t="s">
-        <v>980</v>
+        <v>1048</v>
       </c>
       <c r="M96" t="s">
-        <v>1047</v>
+        <v>1118</v>
       </c>
       <c r="N96" t="s">
-        <v>1110</v>
+        <v>1184</v>
       </c>
       <c r="O96" t="s">
-        <v>1170</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1228</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>1277</v>
-      </c>
-      <c r="R96" t="s">
-        <v>1319</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="E97" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F97" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="G97" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="H97" t="s">
-        <v>653</v>
+        <v>705</v>
       </c>
       <c r="I97" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
       <c r="J97" t="s">
-        <v>823</v>
+        <v>884</v>
       </c>
       <c r="K97" t="s">
-        <v>905</v>
+        <v>970</v>
       </c>
       <c r="L97" t="s">
-        <v>981</v>
+        <v>1049</v>
       </c>
       <c r="M97" t="s">
-        <v>1048</v>
+        <v>1119</v>
       </c>
       <c r="N97" t="s">
-        <v>1111</v>
+        <v>1185</v>
       </c>
       <c r="O97" t="s">
-        <v>1171</v>
+        <v>1247</v>
+      </c>
+      <c r="P97" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D98" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="F98" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="G98" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="H98" t="s">
-        <v>654</v>
+        <v>706</v>
       </c>
       <c r="I98" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
       <c r="J98" t="s">
-        <v>824</v>
+        <v>885</v>
       </c>
       <c r="K98" t="s">
-        <v>906</v>
+        <v>971</v>
       </c>
       <c r="L98" t="s">
-        <v>982</v>
+        <v>1050</v>
       </c>
       <c r="M98" t="s">
-        <v>1049</v>
+        <v>1120</v>
       </c>
       <c r="N98" t="s">
-        <v>1112</v>
+        <v>1186</v>
       </c>
       <c r="O98" t="s">
-        <v>1172</v>
+        <v>1248</v>
       </c>
       <c r="P98" t="s">
-        <v>1229</v>
+        <v>1307</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1357</v>
+      </c>
+      <c r="R98" t="s">
+        <v>1401</v>
+      </c>
+      <c r="S98" t="s">
+        <v>1436</v>
+      </c>
+      <c r="T98" t="s">
+        <v>1467</v>
+      </c>
+      <c r="U98" t="s">
+        <v>1498</v>
+      </c>
+      <c r="V98" t="s">
+        <v>1523</v>
+      </c>
+      <c r="W98" t="s">
+        <v>1545</v>
+      </c>
+      <c r="X98" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>1556</v>
+      <c r="A99" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C99" t="str">
-        <f>"0001166691"</f>
-        <v>0001166691</v>
-      </c>
-      <c r="D99" t="str">
-        <f>"4841"</f>
-        <v>4841</v>
+        <v>234</v>
+      </c>
+      <c r="C99" t="s">
+        <v>340</v>
+      </c>
+      <c r="D99" t="s">
+        <v>355</v>
       </c>
       <c r="E99" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="F99" t="s">
-        <v>1558</v>
+        <v>506</v>
       </c>
       <c r="G99" t="s">
-        <v>1559</v>
+        <v>609</v>
       </c>
       <c r="H99" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I99" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1562</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1563</v>
-      </c>
-      <c r="L99" t="s">
-        <v>1564</v>
-      </c>
-      <c r="M99" t="s">
-        <v>1565</v>
-      </c>
-      <c r="N99" t="s">
-        <v>1566</v>
-      </c>
-      <c r="O99" t="s">
-        <v>1567</v>
-      </c>
-      <c r="P99" t="s">
-        <v>1568</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>1569</v>
-      </c>
-      <c r="R99" t="s">
-        <v>1570</v>
-      </c>
-      <c r="S99" t="s">
-        <v>1571</v>
-      </c>
-      <c r="T99" t="s">
-        <v>1572</v>
-      </c>
-      <c r="U99" t="s">
-        <v>1573</v>
-      </c>
-      <c r="V99" t="s">
-        <v>1574</v>
-      </c>
-      <c r="W99" t="s">
-        <v>1575</v>
-      </c>
-      <c r="X99" t="s">
-        <v>1576</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" t="s">
+        <v>341</v>
+      </c>
+      <c r="D100" t="s">
+        <v>355</v>
+      </c>
+      <c r="E100" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" t="s">
+        <v>507</v>
+      </c>
+      <c r="G100" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" t="s">
+        <v>342</v>
+      </c>
+      <c r="D101" t="s">
+        <v>365</v>
+      </c>
+      <c r="E101" t="s">
+        <v>387</v>
+      </c>
+      <c r="F101" t="s">
+        <v>508</v>
+      </c>
+      <c r="G101" t="s">
+        <v>611</v>
+      </c>
+      <c r="H101" t="s">
+        <v>708</v>
+      </c>
+      <c r="I101" t="s">
+        <v>799</v>
+      </c>
+      <c r="J101" t="s">
+        <v>886</v>
+      </c>
+      <c r="K101" t="s">
+        <v>972</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>343</v>
+      </c>
+      <c r="D102" t="s">
+        <v>353</v>
+      </c>
+      <c r="E102" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" t="s">
+        <v>509</v>
+      </c>
+      <c r="G102" t="s">
+        <v>612</v>
+      </c>
+      <c r="H102" t="s">
+        <v>709</v>
+      </c>
+      <c r="I102" t="s">
+        <v>800</v>
+      </c>
+      <c r="J102" t="s">
+        <v>887</v>
+      </c>
+      <c r="K102" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" t="s">
+        <v>408</v>
+      </c>
+      <c r="F103" t="s">
+        <v>510</v>
+      </c>
+      <c r="G103" t="s">
+        <v>613</v>
+      </c>
+      <c r="H103" t="s">
+        <v>710</v>
+      </c>
+      <c r="I103" t="s">
+        <v>801</v>
+      </c>
+      <c r="J103" t="s">
+        <v>888</v>
+      </c>
+      <c r="K103" t="s">
+        <v>974</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N103" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O103" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1308</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>1358</v>
+      </c>
+      <c r="R103" t="s">
+        <v>1402</v>
+      </c>
+      <c r="S103" t="s">
+        <v>1437</v>
+      </c>
+      <c r="T103" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" t="s">
+        <v>345</v>
+      </c>
+      <c r="D104" t="s">
+        <v>353</v>
+      </c>
+      <c r="E104" t="s">
+        <v>387</v>
+      </c>
+      <c r="F104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" t="s">
+        <v>353</v>
+      </c>
+      <c r="E105" t="s">
+        <v>387</v>
+      </c>
+      <c r="F105" t="s">
+        <v>512</v>
+      </c>
+      <c r="G105" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>347</v>
+      </c>
+      <c r="D106" t="s">
+        <v>350</v>
+      </c>
+      <c r="E106" t="s">
+        <v>387</v>
+      </c>
+      <c r="F106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>348</v>
+      </c>
+      <c r="D107" t="s">
+        <v>353</v>
+      </c>
+      <c r="E107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F107" t="s">
+        <v>514</v>
+      </c>
+      <c r="G107" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT Universe Data.xlsx
+++ b/Data/TMT Universe Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50FC29F-6F08-6F4A-A953-814DBED6FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187EA599-5A18-2445-8133-CD267180E479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>WWE</t>
   </si>
   <si>
-    <t>CMST</t>
-  </si>
-  <si>
     <t>SFIX</t>
   </si>
   <si>
@@ -4952,6 +4949,9 @@
   </si>
   <si>
     <t>0000912057-94-001081</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
   </si>
 </sst>
 </file>
@@ -5355,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5464,37 +5464,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -5502,55 +5502,55 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="M3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="P3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="R3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -5558,97 +5558,97 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="P4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Q4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="R4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="S4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="T4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="U4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="V4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="W4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="X4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="Y4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="Z4" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AA4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="AB4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="AC4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="AD4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="AE4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="AF4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -5656,88 +5656,88 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="P5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="R5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="T5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="U5" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="V5" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="W5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="X5" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="Y5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="Z5" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AA5" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="AB5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AC5" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -5745,19 +5745,19 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -5765,76 +5765,76 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="P7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q7" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="R7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="S7" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="T7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="U7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="V7" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="W7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="X7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="Y7" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -5842,28 +5842,28 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -5871,79 +5871,79 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="N9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="O9" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="P9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="S9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="T9" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="U9" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="V9" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="W9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="X9" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="Y9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="Z9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -5951,40 +5951,40 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5992,46 +5992,46 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N11" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -6039,28 +6039,28 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -6068,34 +6068,34 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -6103,91 +6103,91 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="N14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="P14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q14" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="R14" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="S14" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="T14" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U14" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="V14" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="W14" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="X14" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="Y14" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="Z14" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="AA14" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="AB14" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="AC14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="AD14" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -6195,52 +6195,52 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L15" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M15" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N15" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O15" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="P15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q15" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -6248,88 +6248,88 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K16" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L16" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M16" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="N16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q16" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="R16" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="S16" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="T16" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="U16" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="V16" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="W16" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="X16" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="Y16" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="Z16" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="AA16" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="AB16" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="AC16" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -6337,91 +6337,91 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H17" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L17" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="N17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="O17" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Q17" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="R17" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="S17" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="T17" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="U17" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="V17" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="W17" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="X17" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="Y17" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="Z17" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="AA17" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="AB17" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="AC17" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AD17" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -6429,34 +6429,34 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -6464,55 +6464,55 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J19" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M19" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="N19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="P19" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Q19" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="R19" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -6520,58 +6520,58 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I20" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L20" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="N20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="P20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="R20" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="S20" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -6579,79 +6579,79 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M21" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="N21" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O21" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="P21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="R21" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="S21" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="T21" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="U21" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="V21" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="W21" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="X21" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Y21" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="Z21" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -6659,67 +6659,67 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M22" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N22" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O22" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="P22" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q22" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="R22" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="S22" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="T22" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="U22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="V22" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -6727,49 +6727,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H23" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M23" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N23" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O23" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P23" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -6777,94 +6777,94 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I24" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K24" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L24" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M24" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="N24" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O24" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="P24" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Q24" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="R24" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="S24" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="T24" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="U24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V24" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="W24" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="X24" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="Y24" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="Z24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="AA24" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="AB24" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="AC24" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="AD24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AE24" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -6872,82 +6872,82 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L25" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="N25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="O25" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="P25" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q25" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="R25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="S25" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="T25" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="U25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="V25" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="W25" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="X25" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="Y25" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="Z25" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="AA25" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -6955,76 +6955,76 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L26" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="M26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="N26" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="O26" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q26" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="R26" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="S26" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="T26" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="U26" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="V26" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="W26" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="X26" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="Y26" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -7032,64 +7032,64 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K27" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L27" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M27" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="N27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="O27" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P27" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q27" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="R27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="S27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="T27" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="U27" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -7097,43 +7097,43 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I28" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K28" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L28" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M28" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="N28" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -7141,73 +7141,73 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H29" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M29" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="N29" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="O29" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="P29" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q29" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="R29" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="S29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="T29" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="U29" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="V29" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="W29" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="X29" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -7215,37 +7215,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H30" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -7253,49 +7253,49 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J31" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K31" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="N31" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="O31" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="P31" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -7303,22 +7303,22 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -7326,58 +7326,58 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J33" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L33" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M33" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="N33" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O33" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P33" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q33" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="R33" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="S33" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -7385,34 +7385,34 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
@@ -7420,34 +7420,34 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
@@ -7455,82 +7455,82 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M36" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N36" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="O36" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P36" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q36" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="R36" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="S36" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="T36" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="U36" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="V36" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="W36" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="X36" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="Y36" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="Z36" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="AA36" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
@@ -7541,49 +7541,49 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J37" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K37" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L37" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="M37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="N37" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O37" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="P37" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q37" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -7591,76 +7591,76 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="P38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q38" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="R38" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="S38" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="T38" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="U38" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="V38" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W38" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="X38" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="Y38" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -7668,82 +7668,82 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K39" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N39" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="P39" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Q39" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="R39" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="S39" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="T39" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="U39" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="V39" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="W39" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="X39" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="Y39" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="Z39" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="AA39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -7751,49 +7751,49 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I40" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J40" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L40" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M40" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O40" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="P40" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
@@ -7801,55 +7801,55 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K41" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L41" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M41" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="N41" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O41" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="P41" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q41" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R41" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -7857,91 +7857,91 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K42" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L42" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M42" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="N42" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O42" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P42" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q42" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="R42" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="S42" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="T42" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="U42" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="V42" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="W42" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="X42" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="Y42" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="Z42" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AA42" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="AB42" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="AC42" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="AD42" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
@@ -7949,67 +7949,67 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K43" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L43" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M43" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="N43" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O43" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="P43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q43" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="R43" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="S43" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="T43" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="U43" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="V43" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -8017,28 +8017,28 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H44" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I44" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
@@ -8046,97 +8046,97 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I45" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J45" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K45" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L45" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M45" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="N45" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O45" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="P45" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q45" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="R45" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="S45" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="T45" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="U45" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="V45" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="W45" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="X45" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="Y45" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="Z45" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="AA45" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AB45" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="AC45" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="AD45" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="AE45" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="AF45" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
@@ -8144,55 +8144,55 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H46" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K46" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L46" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M46" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="N46" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O46" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="P46" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q46" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="R46" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
@@ -8200,49 +8200,49 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I47" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J47" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K47" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L47" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M47" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="N47" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="O47" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="P47" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
@@ -8250,49 +8250,49 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H48" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I48" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K48" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L48" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M48" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="N48" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O48" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="P48" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -8300,49 +8300,49 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G49" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H49" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I49" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K49" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L49" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M49" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="N49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="O49" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="P49" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -8350,64 +8350,64 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H50" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I50" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K50" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L50" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M50" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N50" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O50" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="P50" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q50" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="R50" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="S50" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="T50" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="U50" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -8415,37 +8415,37 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H51" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I51" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K51" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L51" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -8453,34 +8453,34 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I52" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J52" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K52" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -8488,37 +8488,37 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G53" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H53" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I53" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J53" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K53" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L53" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -8526,55 +8526,55 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H54" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K54" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L54" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M54" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N54" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O54" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="P54" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q54" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="R54" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -8582,37 +8582,37 @@
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H55" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K55" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L55" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -8620,37 +8620,37 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G56" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H56" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J56" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K56" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L56" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -8658,34 +8658,34 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H57" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I57" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J57" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K57" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -8693,58 +8693,58 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G58" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H58" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I58" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J58" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K58" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L58" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M58" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="N58" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="O58" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="P58" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q58" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="R58" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="S58" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -8752,43 +8752,43 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I59" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K59" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M59" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="N59" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -8796,34 +8796,34 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H60" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I60" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J60" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K60" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -8831,49 +8831,49 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E61" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I61" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J61" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K61" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L61" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M61" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="N61" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O61" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="P61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -8881,55 +8881,55 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I62" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J62" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K62" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L62" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M62" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="N62" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O62" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="P62" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Q62" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="R62" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -8937,52 +8937,52 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F63" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J63" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K63" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L63" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M63" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="N63" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="O63" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P63" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Q63" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -8990,52 +8990,52 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F64" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H64" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I64" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J64" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K64" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="L64" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M64" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="N64" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O64" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P64" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q64" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
@@ -9043,85 +9043,85 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F65" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G65" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I65" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L65" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M65" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="N65" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="O65" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P65" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Q65" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="R65" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="S65" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="T65" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="U65" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="V65" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="W65" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="X65" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="Y65" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="Z65" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="AA65" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="AB65" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
@@ -9129,64 +9129,64 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G66" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H66" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I66" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J66" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K66" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L66" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M66" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="N66" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="O66" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="P66" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Q66" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="R66" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="S66" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="T66" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="U66" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
@@ -9194,31 +9194,31 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G67" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H67" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I67" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J67" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
@@ -9226,40 +9226,40 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F68" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H68" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I68" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J68" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K68" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L68" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M68" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
@@ -9267,37 +9267,37 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G69" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H69" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I69" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K69" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L69" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
@@ -9305,49 +9305,49 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G70" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J70" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K70" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L70" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M70" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="N70" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O70" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="P70" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -9355,52 +9355,52 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H71" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I71" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J71" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K71" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L71" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M71" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="N71" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="O71" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="P71" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Q71" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
@@ -9408,67 +9408,67 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G72" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H72" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I72" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J72" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K72" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L72" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M72" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="N72" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O72" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="P72" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Q72" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="R72" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="S72" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="T72" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="U72" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="V72" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -9476,43 +9476,43 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F73" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H73" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I73" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J73" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K73" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L73" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="M73" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="N73" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
@@ -9520,37 +9520,37 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G74" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I74" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J74" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K74" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -9558,25 +9558,25 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H75" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
@@ -9584,40 +9584,40 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H76" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I76" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J76" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K76" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L76" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M76" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
@@ -9625,46 +9625,46 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G77" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H77" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I77" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J77" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K77" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L77" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M77" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="N77" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O77" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
@@ -9672,55 +9672,55 @@
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F78" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G78" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H78" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I78" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K78" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L78" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M78" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="N78" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="O78" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="P78" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q78" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="R78" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -9728,25 +9728,25 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F79" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H79" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
@@ -9754,40 +9754,40 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G80" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H80" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I80" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J80" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K80" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L80" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M80" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -9795,22 +9795,22 @@
         <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -9818,19 +9818,19 @@
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F82" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -9838,58 +9838,58 @@
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H83" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I83" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J83" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K83" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L83" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M83" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="N83" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O83" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="P83" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q83" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="R83" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="S83" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -9897,22 +9897,22 @@
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E84" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G84" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -9920,76 +9920,76 @@
         <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I85" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J85" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K85" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L85" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M85" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="N85" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O85" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="P85" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Q85" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="R85" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="S85" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="T85" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="U85" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="V85" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="W85" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="X85" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="Y85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -9997,52 +9997,52 @@
         <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F86" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G86" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H86" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I86" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J86" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K86" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L86" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M86" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="N86" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O86" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="P86" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Q86" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -10050,55 +10050,55 @@
         <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H87" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I87" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J87" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K87" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L87" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M87" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="N87" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O87" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="P87" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q87" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="R87" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -10106,22 +10106,22 @@
         <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F88" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G88" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H88" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -10129,64 +10129,64 @@
         <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F89" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G89" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I89" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J89" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K89" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L89" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M89" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="N89" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="O89" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="P89" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q89" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="R89" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="S89" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="T89" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="U89" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
@@ -10194,16 +10194,16 @@
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -10211,28 +10211,28 @@
         <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F91" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G91" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I91" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
@@ -10240,82 +10240,82 @@
         <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F92" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G92" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H92" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I92" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J92" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K92" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L92" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M92" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="N92" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="O92" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="P92" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q92" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="R92" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S92" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="T92" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="U92" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="V92" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="W92" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="X92" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="Y92" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="Z92" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="AA92" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -10323,76 +10323,76 @@
         <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D93" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F93" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I93" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J93" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K93" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L93" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M93" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="N93" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="O93" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="P93" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Q93" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="R93" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="S93" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="T93" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="U93" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="V93" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="W93" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="X93" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="Y93" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -10400,64 +10400,64 @@
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H94" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I94" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J94" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K94" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L94" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M94" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="N94" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="O94" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="P94" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Q94" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="R94" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="S94" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="T94" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="U94" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -10465,55 +10465,55 @@
         <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H95" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I95" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J95" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K95" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L95" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M95" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N95" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="O95" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="P95" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Q95" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="R95" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
@@ -10521,46 +10521,46 @@
         <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F96" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G96" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H96" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I96" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J96" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L96" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M96" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="N96" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="O96" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
@@ -10568,396 +10568,396 @@
         <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G97" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H97" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I97" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J97" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K97" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L97" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M97" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N97" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O97" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="P97" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>128</v>
+        <v>1643</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E98" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F98" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H98" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I98" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J98" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K98" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L98" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M98" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N98" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O98" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P98" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Q98" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="R98" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="S98" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="T98" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="U98" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V98" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="W98" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="X98" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F99" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G99" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H99" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F100" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G100" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F101" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H101" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I101" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J101" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K101" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L101" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M101" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F102" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G102" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H102" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I102" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J102" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K102" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E103" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F103" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G103" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H103" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I103" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J103" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K103" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L103" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M103" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="N103" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O103" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="P103" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Q103" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="R103" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="S103" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="T103" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F104" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F105" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G105" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F106" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F107" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G107" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT Universe Data.xlsx
+++ b/Data/TMT Universe Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187EA599-5A18-2445-8133-CD267180E479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BBB8F5-488B-4143-9A73-353478627C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="1644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1640">
   <si>
     <t>Name</t>
   </si>
@@ -382,9 +382,6 @@
     <t>IRBT</t>
   </si>
   <si>
-    <t>PLTR</t>
-  </si>
-  <si>
     <t>ROKU</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>iRobot</t>
   </si>
   <si>
-    <t>Palantair</t>
-  </si>
-  <si>
     <t>Roku</t>
   </si>
   <si>
@@ -1012,9 +1006,6 @@
     <t>0001159167</t>
   </si>
   <si>
-    <t>0001321655</t>
-  </si>
-  <si>
     <t>0001428439</t>
   </si>
   <si>
@@ -1508,9 +1499,6 @@
   </si>
   <si>
     <t>0001159167-21-000008</t>
-  </si>
-  <si>
-    <t>0001193125-21-060650</t>
   </si>
   <si>
     <t>0001564590-21-009021</t>
@@ -5353,10 +5341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5464,37 +5452,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="K2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="L2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -5502,55 +5490,55 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K3" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="L3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="M3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="N3" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="O3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="P3" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="Q3" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="R3" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -5558,97 +5546,97 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J4" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K4" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="L4" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="M4" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="N4" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="O4" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="P4" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="Q4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="R4" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="S4" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="T4" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="U4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="V4" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="W4" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="X4" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="Y4" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="Z4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="AA4" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="AB4" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="AC4" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="AD4" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="AE4" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="AF4" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -5656,88 +5644,88 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="I5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="K5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="L5" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="M5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="N5" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="O5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="P5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="Q5" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="R5" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="S5" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="T5" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="U5" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="V5" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="W5" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="X5" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="Y5" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="Z5" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="AA5" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="AB5" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="AC5" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -5745,19 +5733,19 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -5765,76 +5753,76 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J7" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="K7" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="L7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="M7" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="N7" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="O7" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="P7" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="Q7" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="R7" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="S7" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="T7" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="U7" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="V7" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="W7" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="X7" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="Y7" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -5842,28 +5830,28 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G8" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I8" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -5871,79 +5859,79 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H9" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I9" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J9" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="K9" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="L9" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="M9" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="N9" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="O9" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="P9" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="Q9" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="R9" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="S9" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="T9" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="U9" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="V9" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="W9" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="X9" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="Y9" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="Z9" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -5951,40 +5939,40 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J10" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="K10" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="L10" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="M10" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5992,46 +5980,46 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="K11" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="L11" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="M11" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="N11" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="O11" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -6039,28 +6027,28 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G12" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="I12" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -6068,34 +6056,34 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H13" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I13" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J13" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="K13" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -6103,91 +6091,91 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G14" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H14" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I14" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J14" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="K14" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="L14" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="M14" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="N14" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="O14" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="P14" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="Q14" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="R14" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="S14" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="T14" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="U14" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="V14" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="W14" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="X14" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="Y14" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="Z14" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="AA14" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="AB14" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="AC14" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="AD14" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -6195,52 +6183,52 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I15" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J15" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="K15" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="L15" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="M15" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="N15" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="O15" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="P15" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="Q15" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -6248,88 +6236,88 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H16" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I16" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J16" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="K16" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="L16" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="M16" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="N16" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="O16" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="P16" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="Q16" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="R16" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="S16" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="T16" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="U16" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="V16" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="W16" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="X16" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="Y16" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="Z16" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="AA16" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="AB16" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="AC16" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -6337,91 +6325,91 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H17" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I17" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J17" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="K17" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="L17" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="M17" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="N17" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="O17" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P17" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="Q17" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="R17" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="S17" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="T17" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="U17" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="V17" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="W17" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="X17" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="Y17" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="Z17" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="AA17" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="AB17" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="AC17" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="AD17" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -6429,34 +6417,34 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G18" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H18" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I18" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="J18" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="K18" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -6464,55 +6452,55 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G19" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H19" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I19" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J19" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="K19" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="L19" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="M19" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="N19" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="O19" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="P19" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="Q19" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="R19" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -6520,58 +6508,58 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G20" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="I20" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J20" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K20" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="L20" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="M20" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="N20" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="O20" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="P20" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="Q20" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="R20" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="S20" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -6579,79 +6567,79 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G21" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H21" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I21" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J21" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="K21" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="L21" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M21" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="N21" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="O21" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="P21" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="Q21" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="R21" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="S21" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="T21" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="U21" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="V21" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="W21" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="X21" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="Y21" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="Z21" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -6659,67 +6647,67 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F22" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H22" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I22" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J22" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="K22" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="L22" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="M22" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="N22" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="O22" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="P22" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="Q22" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="R22" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="S22" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="T22" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="U22" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="V22" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -6727,49 +6715,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I23" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J23" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="K23" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="L23" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="M23" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="N23" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="O23" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="P23" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -6777,94 +6765,94 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I24" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J24" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="K24" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="L24" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="M24" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="N24" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="O24" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="P24" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="Q24" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="R24" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="S24" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="T24" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="U24" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="V24" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="W24" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="X24" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="Y24" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="Z24" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="AA24" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="AB24" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="AC24" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="AD24" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AE24" t="s">
         <v>1635</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -6872,82 +6860,82 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G25" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H25" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I25" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J25" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="K25" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="L25" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="M25" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="N25" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="O25" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="P25" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q25" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="R25" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="S25" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="T25" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="U25" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="V25" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="W25" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="X25" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="Y25" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="Z25" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="AA25" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -6955,76 +6943,76 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E26" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F26" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G26" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H26" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I26" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J26" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="K26" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="L26" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M26" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="N26" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="O26" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="P26" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q26" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="R26" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="S26" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="T26" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="U26" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="V26" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="W26" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="X26" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="Y26" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -7032,64 +7020,64 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G27" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H27" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I27" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J27" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="K27" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="L27" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="M27" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="N27" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="O27" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="P27" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q27" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="R27" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="S27" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="T27" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="U27" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -7097,43 +7085,43 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H28" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I28" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J28" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="K28" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="L28" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="M28" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="N28" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -7141,73 +7129,73 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F29" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G29" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H29" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I29" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J29" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="K29" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="L29" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="M29" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="N29" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="O29" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P29" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q29" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="R29" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="S29" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="T29" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="U29" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="V29" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="W29" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="X29" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -7215,37 +7203,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I30" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J30" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="K30" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="L30" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -7253,49 +7241,49 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G31" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H31" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I31" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J31" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K31" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="L31" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="M31" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="N31" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="O31" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="P31" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -7303,22 +7291,22 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F32" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G32" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -7326,58 +7314,58 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E33" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F33" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G33" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H33" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I33" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J33" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K33" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="L33" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="M33" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="N33" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="O33" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="P33" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q33" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="R33" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="S33" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -7385,34 +7373,34 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D34" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G34" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I34" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J34" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="K34" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
@@ -7420,34 +7408,34 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E35" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F35" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G35" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H35" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I35" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J35" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="K35" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
@@ -7455,82 +7443,82 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E36" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F36" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H36" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I36" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J36" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="K36" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="L36" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="M36" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="N36" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="O36" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="P36" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q36" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="R36" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="S36" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="T36" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="U36" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="V36" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="W36" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="X36" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="Y36" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="Z36" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="AA36" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
@@ -7541,49 +7529,49 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G37" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H37" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I37" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J37" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="K37" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="L37" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="M37" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="N37" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="O37" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="P37" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q37" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -7591,76 +7579,76 @@
         <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E38" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G38" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H38" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I38" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J38" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="K38" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="L38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M38" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N38" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="O38" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="P38" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q38" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="R38" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="S38" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="T38" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="U38" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="V38" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="W38" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="X38" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="Y38" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -7668,82 +7656,82 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G39" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H39" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I39" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J39" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="K39" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="L39" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M39" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="N39" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="O39" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="P39" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="Q39" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="R39" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="S39" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="T39" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="U39" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="V39" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="W39" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="X39" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="Y39" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="Z39" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="AA39" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -7751,49 +7739,49 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G40" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H40" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I40" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J40" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K40" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="L40" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M40" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="N40" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="O40" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="P40" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
@@ -7801,55 +7789,55 @@
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G41" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H41" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I41" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J41" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="K41" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="L41" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="M41" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="N41" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="O41" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="P41" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q41" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="R41" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -7857,91 +7845,91 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F42" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G42" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H42" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I42" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J42" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K42" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="L42" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="M42" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="N42" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="O42" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="P42" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q42" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="R42" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="S42" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="T42" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="U42" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="V42" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="W42" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="X42" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="Y42" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="Z42" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="AA42" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="AB42" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="AC42" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="AD42" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
@@ -7949,67 +7937,67 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G43" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H43" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I43" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J43" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K43" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="L43" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M43" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="N43" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="O43" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="P43" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="Q43" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="R43" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="S43" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="T43" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="U43" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="V43" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
@@ -8017,28 +8005,28 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E44" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F44" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H44" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="I44" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
@@ -8046,97 +8034,97 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H45" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I45" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="J45" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="K45" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="L45" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M45" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="N45" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="O45" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="P45" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Q45" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="R45" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="S45" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="T45" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="U45" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="V45" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="W45" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="X45" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="Y45" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="Z45" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="AA45" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="AB45" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="AC45" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="AD45" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="AE45" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="AF45" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
@@ -8144,55 +8132,55 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H46" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I46" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="J46" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="K46" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="L46" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M46" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="N46" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="O46" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="P46" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="Q46" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="R46" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
@@ -8200,49 +8188,49 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D47" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F47" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G47" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H47" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I47" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="J47" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="K47" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="L47" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M47" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="N47" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="O47" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="P47" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
@@ -8250,49 +8238,49 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F48" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G48" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H48" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="J48" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="K48" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="L48" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="M48" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="N48" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="O48" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="P48" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -8300,49 +8288,49 @@
         <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D49" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E49" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G49" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H49" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I49" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="J49" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K49" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="L49" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M49" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="N49" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="O49" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="P49" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -8350,64 +8338,64 @@
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E50" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F50" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G50" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H50" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I50" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="J50" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="K50" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="L50" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="M50" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="N50" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="O50" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="P50" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q50" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="R50" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="S50" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="T50" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="U50" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -8415,37 +8403,37 @@
         <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E51" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F51" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H51" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I51" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J51" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="K51" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="L51" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -8453,34 +8441,34 @@
         <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D52" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G52" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H52" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I52" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="J52" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="K52" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -8488,37 +8476,37 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E53" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F53" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G53" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H53" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I53" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J53" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="K53" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="L53" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -8526,55 +8514,55 @@
         <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E54" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G54" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H54" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I54" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J54" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="K54" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="L54" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="M54" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="N54" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="O54" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="P54" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q54" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="R54" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -8582,37 +8570,37 @@
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D55" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E55" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G55" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H55" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I55" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J55" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="K55" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="L55" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -8620,37 +8608,37 @@
         <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D56" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E56" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F56" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H56" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I56" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J56" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="K56" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="L56" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -8658,34 +8646,34 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E57" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F57" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G57" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H57" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I57" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="J57" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="K57" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -8693,58 +8681,58 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D58" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F58" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G58" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H58" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I58" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="J58" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K58" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="L58" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M58" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="N58" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="O58" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="P58" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="Q58" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="R58" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="S58" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -8752,43 +8740,43 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F59" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G59" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H59" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I59" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J59" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K59" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="L59" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M59" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="N59" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -8796,34 +8784,34 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E60" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F60" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H60" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I60" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J60" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="K60" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -8831,49 +8819,49 @@
         <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E61" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F61" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G61" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H61" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I61" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="J61" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="K61" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="L61" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="M61" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="N61" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="O61" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="P61" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -8881,55 +8869,55 @@
         <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E62" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H62" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I62" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J62" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="K62" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="L62" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="M62" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="N62" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="O62" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="P62" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="Q62" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="R62" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -8937,52 +8925,52 @@
         <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E63" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F63" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G63" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H63" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="I63" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J63" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="K63" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="L63" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="M63" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="N63" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="O63" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="P63" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="Q63" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -8990,52 +8978,52 @@
         <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D64" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E64" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F64" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G64" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H64" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I64" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="J64" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K64" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="L64" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M64" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="N64" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="O64" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="P64" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="Q64" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
@@ -9043,85 +9031,85 @@
         <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D65" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E65" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F65" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G65" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H65" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I65" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="J65" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="K65" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="L65" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="M65" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="N65" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="O65" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="P65" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="Q65" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="R65" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="S65" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="T65" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="U65" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="V65" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="W65" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="X65" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="Y65" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="Z65" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="AA65" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="AB65" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
@@ -9129,64 +9117,64 @@
         <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E66" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G66" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H66" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="I66" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J66" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="K66" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="L66" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="M66" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="N66" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="O66" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="P66" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="Q66" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="R66" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="S66" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="T66" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="U66" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
@@ -9194,31 +9182,31 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D67" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E67" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F67" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G67" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H67" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="I67" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J67" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
@@ -9226,40 +9214,40 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E68" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F68" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G68" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H68" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I68" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J68" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="K68" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="L68" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="M68" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
@@ -9267,37 +9255,37 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E69" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F69" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G69" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H69" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I69" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="J69" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="K69" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="L69" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
@@ -9305,49 +9293,49 @@
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E70" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F70" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G70" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H70" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="I70" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J70" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="K70" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="L70" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="M70" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="N70" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="O70" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="P70" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -9355,52 +9343,52 @@
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D71" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E71" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G71" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H71" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I71" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="J71" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="K71" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="L71" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="M71" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="N71" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="O71" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="P71" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Q71" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
@@ -9408,67 +9396,67 @@
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D72" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E72" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F72" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G72" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H72" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I72" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J72" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K72" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="L72" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="M72" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="N72" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="O72" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="P72" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="Q72" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="R72" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="S72" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="T72" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="U72" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="V72" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
@@ -9476,43 +9464,43 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E73" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F73" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G73" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H73" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I73" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="J73" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="K73" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="L73" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="M73" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="N73" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
@@ -9520,37 +9508,37 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D74" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E74" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F74" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G74" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H74" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="I74" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="J74" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K74" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="L74" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -9558,25 +9546,25 @@
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E75" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F75" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G75" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H75" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
@@ -9584,40 +9572,40 @@
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D76" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F76" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G76" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H76" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I76" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="J76" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K76" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="L76" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="M76" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
@@ -9625,46 +9613,46 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E77" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F77" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G77" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H77" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I77" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="J77" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="K77" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="L77" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="M77" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="N77" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="O77" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
@@ -9672,55 +9660,55 @@
         <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E78" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F78" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G78" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H78" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="I78" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="J78" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K78" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="L78" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="M78" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="N78" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="O78" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="P78" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="Q78" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="R78" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -9728,25 +9716,25 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F79" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G79" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H79" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
@@ -9754,40 +9742,40 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E80" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F80" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G80" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H80" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="I80" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="J80" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="K80" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="L80" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="M80" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -9795,22 +9783,22 @@
         <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D81" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E81" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F81" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G81" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -9818,19 +9806,19 @@
         <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D82" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E82" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F82" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -9838,58 +9826,58 @@
         <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E83" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G83" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H83" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I83" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J83" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K83" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="L83" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="M83" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="N83" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="O83" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="P83" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q83" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="R83" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="S83" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -9897,22 +9885,22 @@
         <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D84" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E84" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F84" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G84" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -9920,76 +9908,76 @@
         <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D85" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E85" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F85" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G85" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H85" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I85" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="J85" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="K85" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="L85" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="M85" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="N85" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="O85" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="P85" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="Q85" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="R85" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="S85" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="T85" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="U85" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="V85" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="W85" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="X85" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="Y85" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -9997,52 +9985,52 @@
         <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D86" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E86" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F86" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G86" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H86" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I86" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="J86" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="K86" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L86" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="M86" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="N86" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="O86" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="P86" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="Q86" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -10050,55 +10038,55 @@
         <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D87" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E87" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F87" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G87" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H87" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I87" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="J87" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="K87" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="L87" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="M87" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="N87" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="O87" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="P87" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="Q87" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="R87" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -10106,22 +10094,22 @@
         <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F88" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G88" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H88" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.2">
@@ -10129,64 +10117,64 @@
         <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D89" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E89" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F89" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G89" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H89" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="I89" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="J89" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="K89" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="L89" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="M89" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="N89" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="O89" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="P89" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="Q89" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="R89" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="S89" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="T89" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="U89" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
@@ -10194,16 +10182,28 @@
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="E90" t="s">
+        <v>383</v>
       </c>
       <c r="F90" t="s">
-        <v>496</v>
+        <v>493</v>
+      </c>
+      <c r="G90" t="s">
+        <v>596</v>
+      </c>
+      <c r="H90" t="s">
+        <v>694</v>
+      </c>
+      <c r="I90" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
@@ -10211,28 +10211,82 @@
         <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E91" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F91" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G91" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H91" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I91" t="s">
-        <v>790</v>
+        <v>787</v>
+      </c>
+      <c r="J91" t="s">
+        <v>874</v>
+      </c>
+      <c r="K91" t="s">
+        <v>960</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1297</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R91" t="s">
+        <v>1392</v>
+      </c>
+      <c r="S91" t="s">
+        <v>1428</v>
+      </c>
+      <c r="T91" t="s">
+        <v>1459</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1490</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1516</v>
+      </c>
+      <c r="W91" t="s">
+        <v>1538</v>
+      </c>
+      <c r="X91" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.2">
@@ -10240,82 +10294,76 @@
         <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="E92" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F92" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G92" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H92" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I92" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J92" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K92" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="L92" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M92" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="N92" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="O92" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="P92" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="Q92" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="R92" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="S92" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="T92" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="U92" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="V92" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="W92" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X92" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="Y92" t="s">
-        <v>1585</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>1601</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>1614</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.2">
@@ -10323,76 +10371,64 @@
         <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D93" t="s">
+        <v>371</v>
+      </c>
+      <c r="E93" t="s">
         <v>383</v>
       </c>
-      <c r="E93" t="s">
-        <v>386</v>
-      </c>
       <c r="F93" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G93" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H93" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I93" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="J93" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="K93" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="L93" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M93" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="N93" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="O93" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="P93" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="Q93" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="R93" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="S93" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="T93" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="U93" t="s">
-        <v>1495</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1521</v>
-      </c>
-      <c r="W93" t="s">
-        <v>1543</v>
-      </c>
-      <c r="X93" t="s">
-        <v>1565</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>1586</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
@@ -10400,64 +10436,55 @@
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D94" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="E94" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F94" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G94" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H94" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I94" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J94" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="K94" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="L94" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="M94" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="N94" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="O94" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="P94" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="Q94" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="R94" t="s">
-        <v>1398</v>
-      </c>
-      <c r="S94" t="s">
-        <v>1434</v>
-      </c>
-      <c r="T94" t="s">
-        <v>1465</v>
-      </c>
-      <c r="U94" t="s">
-        <v>1496</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
@@ -10465,55 +10492,46 @@
         <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F95" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G95" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H95" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="I95" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J95" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="K95" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="L95" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="M95" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="N95" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="O95" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>1355</v>
-      </c>
-      <c r="R95" t="s">
-        <v>1399</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.2">
@@ -10521,170 +10539,149 @@
         <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="E96" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F96" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G96" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H96" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I96" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J96" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="K96" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="L96" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="M96" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="N96" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="O96" t="s">
-        <v>1245</v>
+        <v>1242</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>127</v>
+        <v>1639</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D97" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="E97" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F97" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G97" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="H97" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I97" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="J97" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="K97" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="L97" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M97" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="N97" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="O97" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="P97" t="s">
-        <v>1305</v>
+        <v>1302</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1396</v>
+      </c>
+      <c r="S97" t="s">
+        <v>1431</v>
+      </c>
+      <c r="T97" t="s">
+        <v>1462</v>
+      </c>
+      <c r="U97" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V97" t="s">
+        <v>1518</v>
+      </c>
+      <c r="W97" t="s">
+        <v>1540</v>
+      </c>
+      <c r="X97" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1643</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D98" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E98" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F98" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G98" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H98" t="s">
-        <v>705</v>
-      </c>
-      <c r="I98" t="s">
-        <v>797</v>
-      </c>
-      <c r="J98" t="s">
-        <v>884</v>
-      </c>
-      <c r="K98" t="s">
-        <v>970</v>
-      </c>
-      <c r="L98" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M98" t="s">
-        <v>1119</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1185</v>
-      </c>
-      <c r="O98" t="s">
-        <v>1247</v>
-      </c>
-      <c r="P98" t="s">
-        <v>1306</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>1356</v>
-      </c>
-      <c r="R98" t="s">
-        <v>1400</v>
-      </c>
-      <c r="S98" t="s">
-        <v>1435</v>
-      </c>
-      <c r="T98" t="s">
-        <v>1466</v>
-      </c>
-      <c r="U98" t="s">
-        <v>1497</v>
-      </c>
-      <c r="V98" t="s">
-        <v>1522</v>
-      </c>
-      <c r="W98" t="s">
-        <v>1544</v>
-      </c>
-      <c r="X98" t="s">
-        <v>1566</v>
+        <v>702</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
@@ -10692,25 +10689,22 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D99" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E99" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F99" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G99" t="s">
-        <v>608</v>
-      </c>
-      <c r="H99" t="s">
-        <v>706</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
@@ -10718,22 +10712,40 @@
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D100" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="F100" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G100" t="s">
-        <v>609</v>
+        <v>606</v>
+      </c>
+      <c r="H100" t="s">
+        <v>703</v>
+      </c>
+      <c r="I100" t="s">
+        <v>794</v>
+      </c>
+      <c r="J100" t="s">
+        <v>881</v>
+      </c>
+      <c r="K100" t="s">
+        <v>967</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
@@ -10741,40 +10753,34 @@
         <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D101" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E101" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F101" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G101" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H101" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I101" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="J101" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="K101" t="s">
-        <v>971</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1120</v>
+        <v>968</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
@@ -10782,34 +10788,61 @@
         <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D102" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="E102" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="F102" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G102" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H102" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I102" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J102" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="K102" t="s">
-        <v>972</v>
+        <v>969</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1353</v>
+      </c>
+      <c r="R102" t="s">
+        <v>1397</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1432</v>
+      </c>
+      <c r="T102" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
@@ -10817,61 +10850,19 @@
         <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D103" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="E103" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="F103" t="s">
-        <v>509</v>
-      </c>
-      <c r="G103" t="s">
-        <v>612</v>
-      </c>
-      <c r="H103" t="s">
-        <v>709</v>
-      </c>
-      <c r="I103" t="s">
-        <v>800</v>
-      </c>
-      <c r="J103" t="s">
-        <v>887</v>
-      </c>
-      <c r="K103" t="s">
-        <v>973</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M103" t="s">
-        <v>1121</v>
-      </c>
-      <c r="N103" t="s">
-        <v>1186</v>
-      </c>
-      <c r="O103" t="s">
-        <v>1248</v>
-      </c>
-      <c r="P103" t="s">
-        <v>1307</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>1357</v>
-      </c>
-      <c r="R103" t="s">
-        <v>1401</v>
-      </c>
-      <c r="S103" t="s">
-        <v>1436</v>
-      </c>
-      <c r="T103" t="s">
-        <v>1467</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
@@ -10879,19 +10870,22 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D104" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E104" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F104" t="s">
-        <v>510</v>
+        <v>507</v>
+      </c>
+      <c r="G104" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
@@ -10899,22 +10893,19 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D105" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E105" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F105" t="s">
-        <v>511</v>
-      </c>
-      <c r="G105" t="s">
-        <v>613</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
@@ -10922,42 +10913,22 @@
         <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s">
         <v>349</v>
       </c>
       <c r="E106" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107" t="s">
-        <v>347</v>
-      </c>
-      <c r="D107" t="s">
-        <v>352</v>
-      </c>
-      <c r="E107" t="s">
-        <v>386</v>
-      </c>
-      <c r="F107" t="s">
-        <v>513</v>
-      </c>
-      <c r="G107" t="s">
-        <v>614</v>
+        <v>509</v>
+      </c>
+      <c r="G106" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT Universe Data.xlsx
+++ b/Data/TMT Universe Data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB6A02-5BE8-DA4E-B709-49B81E4497FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -5293,8 +5299,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5357,6 +5363,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5403,7 +5417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5435,9 +5449,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5469,6 +5501,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5644,14 +5694,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5698,7 +5753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -5736,7 +5791,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5783,7 +5838,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -5830,7 +5885,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5877,7 +5932,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5897,7 +5952,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -5944,7 +5999,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -5973,7 +6028,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -6020,7 +6075,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -6061,7 +6116,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -6108,7 +6163,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -6137,7 +6192,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -6172,7 +6227,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6219,7 +6274,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -6266,7 +6321,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -6313,7 +6368,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -6360,7 +6415,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -6395,7 +6450,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -6442,7 +6497,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -6489,7 +6544,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -6536,7 +6591,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -6583,7 +6638,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -6630,7 +6685,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -6677,7 +6732,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -6724,7 +6779,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -6771,7 +6826,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -6818,7 +6873,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -6862,7 +6917,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -6909,7 +6964,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -6947,7 +7002,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -6994,7 +7049,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -7017,7 +7072,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -7064,7 +7119,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -7099,7 +7154,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -7134,7 +7189,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -7181,7 +7236,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -7228,7 +7283,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -7275,7 +7330,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -7322,7 +7377,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -7369,7 +7424,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -7416,7 +7471,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -7463,7 +7518,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -7510,7 +7565,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -7539,7 +7594,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -7586,7 +7641,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
@@ -7633,7 +7688,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
@@ -7680,7 +7735,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -7727,7 +7782,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -7774,7 +7829,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -7821,7 +7876,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -7859,7 +7914,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -7894,7 +7949,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -7932,7 +7987,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -7979,7 +8034,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -8017,7 +8072,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
@@ -8055,7 +8110,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
@@ -8090,7 +8145,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
@@ -8137,7 +8192,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
@@ -8181,7 +8236,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -8216,7 +8271,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -8263,7 +8318,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -8310,7 +8365,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
@@ -8357,7 +8412,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
@@ -8404,7 +8459,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -8451,7 +8506,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -8498,7 +8553,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
@@ -8530,7 +8585,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
@@ -8571,7 +8626,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -8609,7 +8664,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
@@ -8656,7 +8711,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -8703,7 +8758,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
@@ -8750,7 +8805,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -8794,7 +8849,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
@@ -8832,7 +8887,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
@@ -8858,7 +8913,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>89</v>
       </c>
@@ -8899,7 +8954,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -8946,7 +9001,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>91</v>
       </c>
@@ -8993,7 +9048,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>92</v>
       </c>
@@ -9019,7 +9074,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -9060,7 +9115,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>94</v>
       </c>
@@ -9083,7 +9138,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
@@ -9103,7 +9158,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>96</v>
       </c>
@@ -9150,7 +9205,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>97</v>
       </c>
@@ -9173,7 +9228,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>98</v>
       </c>
@@ -9220,7 +9275,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
@@ -9267,7 +9322,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
@@ -9314,7 +9369,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -9337,7 +9392,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>102</v>
       </c>
@@ -9384,7 +9439,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -9413,7 +9468,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
@@ -9460,7 +9515,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -9507,7 +9562,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
@@ -9554,7 +9609,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
@@ -9601,7 +9656,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>108</v>
       </c>
@@ -9648,7 +9703,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>109</v>
       </c>
@@ -9695,7 +9750,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
@@ -9742,7 +9797,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>111</v>
       </c>
@@ -9768,7 +9823,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>112</v>
       </c>
@@ -9791,7 +9846,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
@@ -9832,7 +9887,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>114</v>
       </c>
@@ -9867,7 +9922,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
@@ -9914,7 +9969,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>116</v>
       </c>
@@ -9934,7 +9989,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -9957,7 +10012,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>118</v>
       </c>
@@ -9977,7 +10032,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>119</v>
       </c>
@@ -10000,7 +10055,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>120</v>
       </c>
@@ -10035,7 +10090,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
@@ -10061,7 +10116,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>122</v>
       </c>
@@ -10108,7 +10163,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>123</v>
       </c>
@@ -10155,7 +10210,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
@@ -10202,7 +10257,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>125</v>
       </c>
@@ -10222,7 +10277,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>126</v>
       </c>
@@ -10269,7 +10324,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>127</v>
       </c>
@@ -10292,7 +10347,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
@@ -10339,7 +10394,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>129</v>
       </c>
@@ -10386,7 +10441,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>130</v>
       </c>
@@ -10433,7 +10488,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>131</v>
       </c>
@@ -10453,7 +10508,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>132</v>
       </c>
@@ -10500,7 +10555,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>133</v>
       </c>
@@ -10547,7 +10602,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>134</v>
       </c>
@@ -10594,7 +10649,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>135</v>
       </c>
@@ -10641,7 +10696,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>136</v>
       </c>
@@ -10685,7 +10740,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>137</v>
       </c>
@@ -10732,7 +10787,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>138</v>
       </c>
@@ -10779,7 +10834,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>139</v>
       </c>
@@ -10820,7 +10875,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>140</v>
       </c>
@@ -10858,7 +10913,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>141</v>
       </c>
@@ -10905,7 +10960,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>142</v>
       </c>
@@ -10949,7 +11004,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>143</v>
       </c>
@@ -10987,7 +11042,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>144</v>
       </c>
@@ -11016,7 +11071,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>145</v>
       </c>
@@ -11063,7 +11118,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>146</v>
       </c>
@@ -11089,7 +11144,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>147</v>
       </c>
@@ -11127,7 +11182,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>148</v>
       </c>
@@ -11165,7 +11220,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>149</v>
       </c>
@@ -11209,7 +11264,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>150</v>
       </c>
@@ -11256,7 +11311,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>151</v>
       </c>
@@ -11303,7 +11358,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>152</v>
       </c>
@@ -11326,7 +11381,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>153</v>
       </c>
@@ -11373,7 +11428,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>154</v>
       </c>
@@ -11420,7 +11475,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>155</v>
       </c>
@@ -11467,7 +11522,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>156</v>
       </c>
@@ -11514,7 +11569,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>157</v>
       </c>
@@ -11561,7 +11616,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>158</v>
       </c>
@@ -11608,7 +11663,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>159</v>
       </c>
@@ -11655,7 +11710,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>160</v>
       </c>
@@ -11693,7 +11748,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>161</v>
       </c>
@@ -11740,7 +11795,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>162</v>
       </c>
@@ -11787,7 +11842,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>163</v>
       </c>
@@ -11816,7 +11871,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>164</v>
       </c>
@@ -11863,7 +11918,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>165</v>
       </c>
